--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_17_31.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_17_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1184712.976132217</v>
+        <v>1179815.73954427</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>23767730.23371834</v>
+        <v>23767730.23371835</v>
       </c>
     </row>
     <row r="8">
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1381,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>20.02329417053214</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>402.5056876845219</v>
@@ -1390,7 +1390,7 @@
         <v>285.9311321812619</v>
       </c>
       <c r="I11" t="n">
-        <v>3.16656820245619</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>85.26980621371686</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>210.6370840092685</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>379.9226978561831</v>
+        <v>233.216316921333</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1460,7 +1460,7 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F12" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>104.7777180703237</v>
@@ -1511,13 +1511,13 @@
         <v>211.5744117368965</v>
       </c>
       <c r="W12" t="n">
-        <v>36.49685192153712</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X12" t="n">
         <v>174.5627220424961</v>
       </c>
       <c r="Y12" t="n">
-        <v>157.8079400398083</v>
+        <v>91.07423639963045</v>
       </c>
     </row>
     <row r="13">
@@ -1530,25 +1530,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>50.35662455517745</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>139.5954175304433</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>86.37808034979747</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.35255397088748</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>167.8355178356165</v>
@@ -1584,19 +1584,19 @@
         <v>233.0607131231338</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9179208068699</v>
       </c>
       <c r="V13" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>204.140920390203</v>
       </c>
       <c r="X13" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>176.1335547079473</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1621,13 +1621,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>294.8185417183705</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>285.9311321812619</v>
       </c>
       <c r="I14" t="n">
-        <v>3.166568202456219</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,22 +1660,22 @@
         <v>85.26980621371686</v>
       </c>
       <c r="T14" t="n">
-        <v>210.6370840092685</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1691,7 +1691,7 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D15" t="n">
-        <v>93.69295429483549</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E15" t="n">
         <v>119.2878878475953</v>
@@ -1700,10 +1700,10 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G15" t="n">
-        <v>104.7777180703237</v>
+        <v>15.86252774276099</v>
       </c>
       <c r="H15" t="n">
-        <v>59.00565898536429</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>85.6887943319354</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>153.1433946664671</v>
@@ -1745,7 +1745,7 @@
         <v>195.3021387078687</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W15" t="n">
         <v>211.1008365810345</v>
@@ -1767,16 +1767,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
         <v>164.6200590018132</v>
@@ -1785,7 +1785,7 @@
         <v>139.5954175304433</v>
       </c>
       <c r="I16" t="n">
-        <v>86.37808034979749</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1824,16 +1824,16 @@
         <v>279.9179208068699</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>3.191784821455482</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>118.7316150564321</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>288.5031059057193</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>383.2545676648841</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>285.9311321812619</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>3.166568202456219</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>85.26980621371686</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>210.6370840092685</v>
       </c>
       <c r="U17" t="n">
-        <v>254.319061736559</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1925,10 +1925,10 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C18" t="n">
-        <v>132.6551205385437</v>
+        <v>14.77366309648299</v>
       </c>
       <c r="D18" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>119.2878878475953</v>
@@ -1982,7 +1982,7 @@
         <v>195.3021387078687</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W18" t="n">
         <v>211.1008365810345</v>
@@ -1991,7 +1991,7 @@
         <v>174.5627220424961</v>
       </c>
       <c r="Y18" t="n">
-        <v>135.7727081318427</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="19">
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
         <v>169.3824387139007</v>
@@ -2013,13 +2013,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>151.5062532910631</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
         <v>164.6200590018132</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>139.5954175304433</v>
       </c>
       <c r="I19" t="n">
         <v>86.37808034979749</v>
@@ -2052,22 +2052,22 @@
         <v>41.35255397088748</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>167.8355178356165</v>
       </c>
       <c r="T19" t="n">
         <v>233.0607131231338</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>2.375105093170955</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>222.4883416251229</v>
@@ -2086,19 +2086,19 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>285.9311321812619</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>85.26980621371686</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>210.6370840092685</v>
       </c>
       <c r="U20" t="n">
-        <v>254.319061736559</v>
+        <v>214.2346741049802</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
-        <v>3.006453724678117</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2159,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>117.9383577540129</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C21" t="n">
         <v>132.6551205385437</v>
@@ -2168,10 +2168,10 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E21" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>85.6887943319354</v>
+        <v>76.14475660499214</v>
       </c>
       <c r="T21" t="n">
         <v>153.1433946664671</v>
@@ -2238,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>36.2418693448223</v>
       </c>
       <c r="C22" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>139.5954175304433</v>
       </c>
       <c r="I22" t="n">
-        <v>86.37808034979749</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>41.35255397088748</v>
       </c>
       <c r="S22" t="n">
         <v>167.8355178356165</v>
@@ -2295,19 +2295,19 @@
         <v>233.0607131231338</v>
       </c>
       <c r="U22" t="n">
-        <v>95.05356485017245</v>
+        <v>279.9179208068699</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2323,16 +2323,16 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>93.32863185813935</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>384.4895392141261</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>285.9311321812619</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>85.26980621371686</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>210.6370840092685</v>
@@ -2380,13 +2380,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="24">
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.6200590018132</v>
       </c>
       <c r="H25" t="n">
         <v>139.5954175304433</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>86.37808034979749</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,16 +2529,16 @@
         <v>167.8355178356165</v>
       </c>
       <c r="T25" t="n">
-        <v>233.0607131231338</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>210.303831305581</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>73.78333136189038</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>235.9604235189134</v>
@@ -2563,13 +2563,13 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>78.61527236264969</v>
+        <v>146.8879577001736</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>85.26980621371686</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>210.6370840092685</v>
       </c>
       <c r="U26" t="n">
-        <v>254.319061736559</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="27">
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>157.8996982303191</v>
@@ -2733,7 +2733,7 @@
         <v>139.5954175304433</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>86.37808034979749</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>41.35255397088748</v>
       </c>
       <c r="S28" t="n">
-        <v>89.43156271132183</v>
+        <v>167.8355178356165</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9179208068699</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>157.8415917960217</v>
       </c>
       <c r="X28" t="n">
         <v>235.9604235189134</v>
@@ -2794,16 +2794,16 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>202.5311407879132</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
         <v>402.5056876845219</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>85.26980621371686</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>210.6370840092685</v>
       </c>
       <c r="U29" t="n">
-        <v>254.319061736559</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>134.3959392708116</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="30">
@@ -2952,13 +2952,13 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>162.9848146305146</v>
@@ -2967,7 +2967,7 @@
         <v>164.6200590018132</v>
       </c>
       <c r="H31" t="n">
-        <v>139.5954175304433</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.35255397088748</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>167.8355178356165</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9179208068699</v>
       </c>
       <c r="V31" t="n">
-        <v>51.71796170109005</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>118.7287204905397</v>
       </c>
       <c r="X31" t="n">
         <v>235.9604235189134</v>
@@ -3028,16 +3028,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>347.215043444714</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
         <v>416.8201079258493</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>41.72534988199815</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>85.26980621371686</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>210.6370840092685</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3094,10 +3094,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>74.74370774124181</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3198,16 +3198,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>13.39026886281447</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.6200590018132</v>
       </c>
       <c r="H34" t="n">
-        <v>139.5954175304433</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>86.37808034979749</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3268,10 +3268,10 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>122.5104852498573</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3319,19 +3319,19 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>178.4123241577037</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3344,13 +3344,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>24.57824651196282</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C36" t="n">
         <v>132.6551205385437</v>
       </c>
       <c r="D36" t="n">
-        <v>115.7281862028015</v>
+        <v>60.41208939089906</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -3362,7 +3362,7 @@
         <v>104.7777180703237</v>
       </c>
       <c r="H36" t="n">
-        <v>59.00565898536429</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3423,16 +3423,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>128.6517484059791</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.35255397088748</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>167.8355178356165</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>233.0607131231338</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>100.0041213655941</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -3508,19 +3508,19 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>218.3417083149189</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
-        <v>402.5056876845219</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>285.9311321812619</v>
+        <v>40.48751257636351</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,19 +3553,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>85.26980621371686</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>210.6370840092685</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>254.319061736559</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3581,13 +3581,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C39" t="n">
         <v>132.6551205385437</v>
       </c>
       <c r="D39" t="n">
-        <v>106.7073391991058</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E39" t="n">
         <v>119.2878878475953</v>
@@ -3599,7 +3599,7 @@
         <v>104.7777180703237</v>
       </c>
       <c r="H39" t="n">
-        <v>59.00565898536429</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3632,10 +3632,10 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>85.6887943319354</v>
       </c>
       <c r="T39" t="n">
-        <v>153.1433946664671</v>
+        <v>153.1021320494655</v>
       </c>
       <c r="U39" t="n">
         <v>195.3021387078687</v>
@@ -3647,7 +3647,7 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X39" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>157.8079400398083</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3669,16 +3669,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>47.10667706908021</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.6200590018132</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>139.5954175304433</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3723,13 +3723,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>132.4945172166068</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3742,19 +3742,19 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>201.5861018874166</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>85.26980621371686</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>210.6370840092685</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>101.2471700509414</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3818,7 +3818,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>132.6551205385437</v>
@@ -3830,7 +3830,7 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F42" t="n">
-        <v>85.3614739554928</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G42" t="n">
         <v>104.7777180703237</v>
@@ -3881,13 +3881,13 @@
         <v>211.5744117368965</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X42" t="n">
         <v>174.5627220424961</v>
       </c>
       <c r="Y42" t="n">
-        <v>157.8079400398083</v>
+        <v>63.09829870417695</v>
       </c>
     </row>
     <row r="43">
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3909,16 +3909,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>164.6200590018132</v>
+        <v>10.8027776983278</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>139.5954175304433</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>86.37808034979749</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,19 +3948,19 @@
         <v>41.35255397088748</v>
       </c>
       <c r="S43" t="n">
-        <v>167.8355178356165</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>233.0607131231338</v>
       </c>
       <c r="U43" t="n">
         <v>279.9179208068699</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>166.617304645841</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
         <v>235.9604235189134</v>
@@ -3976,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>345.1161622605522</v>
       </c>
       <c r="C44" t="n">
-        <v>370.1124256966929</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3994,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>285.9311321812619</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4030,19 +4030,19 @@
         <v>85.26980621371686</v>
       </c>
       <c r="T44" t="n">
-        <v>210.6370840092685</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>254.319061736559</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4106,13 +4106,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>85.6887943319354</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>153.1433946664671</v>
       </c>
       <c r="U45" t="n">
-        <v>195.3021387078687</v>
+        <v>47.3812893949413</v>
       </c>
       <c r="V45" t="n">
         <v>211.5744117368965</v>
@@ -4121,7 +4121,7 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X45" t="n">
-        <v>94.09647306410021</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y45" t="n">
         <v>157.8079400398083</v>
@@ -4134,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>164.6200590018132</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>86.37808034979749</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,25 +4185,25 @@
         <v>41.35255397088748</v>
       </c>
       <c r="S46" t="n">
-        <v>167.8355178356165</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>109.3134886362476</v>
       </c>
       <c r="U46" t="n">
         <v>279.9179208068699</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>172.6374863876236</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>754.5558210499828</v>
+        <v>1141.256308329654</v>
       </c>
       <c r="C11" t="n">
-        <v>754.5558210499828</v>
+        <v>731.1317176429238</v>
       </c>
       <c r="D11" t="n">
-        <v>754.5558210499828</v>
+        <v>731.1317176429238</v>
       </c>
       <c r="E11" t="n">
-        <v>754.5558210499828</v>
+        <v>731.1317176429238</v>
       </c>
       <c r="F11" t="n">
-        <v>734.3302713827786</v>
+        <v>731.1317176429238</v>
       </c>
       <c r="G11" t="n">
-        <v>327.7588696812413</v>
+        <v>324.5603159413865</v>
       </c>
       <c r="H11" t="n">
-        <v>38.93954424562313</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="I11" t="n">
-        <v>35.74099050576839</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="J11" t="n">
-        <v>142.57038546899</v>
+        <v>142.5703854689898</v>
       </c>
       <c r="K11" t="n">
-        <v>323.2290557446593</v>
+        <v>323.2290557446588</v>
       </c>
       <c r="L11" t="n">
-        <v>562.2973247064789</v>
+        <v>562.2973247064783</v>
       </c>
       <c r="M11" t="n">
-        <v>841.1329596152978</v>
+        <v>841.1329596152972</v>
       </c>
       <c r="N11" t="n">
-        <v>1126.34903900405</v>
+        <v>1126.349039004049</v>
       </c>
       <c r="O11" t="n">
-        <v>1390.269714189819</v>
+        <v>1390.269714189818</v>
       </c>
       <c r="P11" t="n">
-        <v>1601.546999092374</v>
+        <v>1601.546999092373</v>
       </c>
       <c r="Q11" t="n">
-        <v>1740.697478824118</v>
+        <v>1740.697478824117</v>
       </c>
       <c r="R11" t="n">
-        <v>1787.04952528842</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="S11" t="n">
-        <v>1700.918407900827</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="T11" t="n">
-        <v>1488.153676578333</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="U11" t="n">
-        <v>1488.153676578333</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="V11" t="n">
-        <v>1138.316121914814</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="W11" t="n">
-        <v>754.5558210499828</v>
+        <v>1551.477487994143</v>
       </c>
       <c r="X11" t="n">
-        <v>754.5558210499828</v>
+        <v>1551.477487994143</v>
       </c>
       <c r="Y11" t="n">
-        <v>754.5558210499828</v>
+        <v>1551.477487994143</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>621.9219942215105</v>
+        <v>512.9621144040152</v>
       </c>
       <c r="C12" t="n">
-        <v>487.9269229704562</v>
+        <v>378.9670431529609</v>
       </c>
       <c r="D12" t="n">
-        <v>371.0297651898487</v>
+        <v>262.0698853723533</v>
       </c>
       <c r="E12" t="n">
-        <v>250.5369491821766</v>
+        <v>141.5770693646812</v>
       </c>
       <c r="F12" t="n">
         <v>141.5770693646812</v>
       </c>
       <c r="G12" t="n">
-        <v>35.74099050576839</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="H12" t="n">
-        <v>35.74099050576839</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="I12" t="n">
-        <v>35.74099050576839</v>
+        <v>54.34778796170228</v>
       </c>
       <c r="J12" t="n">
-        <v>335.4150222482923</v>
+        <v>354.0218197042262</v>
       </c>
       <c r="K12" t="n">
-        <v>462.790264562357</v>
+        <v>563.6655423722054</v>
       </c>
       <c r="L12" t="n">
-        <v>652.8226261026794</v>
+        <v>753.6979039125277</v>
       </c>
       <c r="M12" t="n">
-        <v>882.42096038257</v>
+        <v>983.2962381924183</v>
       </c>
       <c r="N12" t="n">
-        <v>1123.931580570561</v>
+        <v>1224.806858380409</v>
       </c>
       <c r="O12" t="n">
-        <v>1335.867598057628</v>
+        <v>1436.742875867477</v>
       </c>
       <c r="P12" t="n">
-        <v>1686.980039158657</v>
+        <v>1599.010322681675</v>
       </c>
       <c r="Q12" t="n">
-        <v>1775.23425554002</v>
+        <v>1687.264539063037</v>
       </c>
       <c r="R12" t="n">
-        <v>1787.04952528842</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="S12" t="n">
-        <v>1700.495187579394</v>
+        <v>1700.495187579393</v>
       </c>
       <c r="T12" t="n">
-        <v>1545.804889936498</v>
+        <v>1545.804889936497</v>
       </c>
       <c r="U12" t="n">
-        <v>1348.530002352792</v>
+        <v>1348.530002352791</v>
       </c>
       <c r="V12" t="n">
-        <v>1134.818475345826</v>
+        <v>1134.818475345825</v>
       </c>
       <c r="W12" t="n">
-        <v>1097.952968354374</v>
+        <v>921.5853070821539</v>
       </c>
       <c r="X12" t="n">
-        <v>921.6269864932672</v>
+        <v>745.2593252210468</v>
       </c>
       <c r="Y12" t="n">
-        <v>762.2250268570972</v>
+        <v>653.2651470396019</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>640.4042673202093</v>
+        <v>206.8343629440519</v>
       </c>
       <c r="C13" t="n">
-        <v>589.5389899917473</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="D13" t="n">
-        <v>589.5389899917473</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="E13" t="n">
-        <v>428.6281748600668</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="F13" t="n">
-        <v>263.9970489706581</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="G13" t="n">
-        <v>263.9970489706581</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="H13" t="n">
-        <v>122.991576717685</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="I13" t="n">
-        <v>35.74099050576839</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="J13" t="n">
-        <v>51.86344281542371</v>
+        <v>116.8648064467601</v>
       </c>
       <c r="K13" t="n">
-        <v>316.5851657192591</v>
+        <v>381.5865293505955</v>
       </c>
       <c r="L13" t="n">
-        <v>717.4611618365533</v>
+        <v>782.4625254678897</v>
       </c>
       <c r="M13" t="n">
-        <v>817.2930089539548</v>
+        <v>875.4027113546831</v>
       </c>
       <c r="N13" t="n">
-        <v>1243.239884391384</v>
+        <v>969.3152853445271</v>
       </c>
       <c r="O13" t="n">
-        <v>1321.756545649938</v>
+        <v>1321.756545649937</v>
       </c>
       <c r="P13" t="n">
-        <v>1642.118498692662</v>
+        <v>1642.118498692661</v>
       </c>
       <c r="Q13" t="n">
-        <v>1787.04952528842</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="R13" t="n">
-        <v>1745.27926875217</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="S13" t="n">
-        <v>1575.748442655587</v>
+        <v>1617.518699191837</v>
       </c>
       <c r="T13" t="n">
-        <v>1340.333580915048</v>
+        <v>1382.103837451297</v>
       </c>
       <c r="U13" t="n">
-        <v>1340.333580915048</v>
+        <v>1099.358462898904</v>
       </c>
       <c r="V13" t="n">
-        <v>1066.44783585457</v>
+        <v>825.4727178384255</v>
       </c>
       <c r="W13" t="n">
-        <v>1066.44783585457</v>
+        <v>619.2697679493316</v>
       </c>
       <c r="X13" t="n">
-        <v>828.1039737142537</v>
+        <v>619.2697679493316</v>
       </c>
       <c r="Y13" t="n">
-        <v>828.1039737142537</v>
+        <v>394.5340693380963</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>336.7360510318559</v>
+        <v>906.9369273715051</v>
       </c>
       <c r="C14" t="n">
-        <v>336.7360510318559</v>
+        <v>729.024245848326</v>
       </c>
       <c r="D14" t="n">
-        <v>336.7360510318559</v>
+        <v>324.5603159413865</v>
       </c>
       <c r="E14" t="n">
-        <v>336.7360510318559</v>
+        <v>324.5603159413865</v>
       </c>
       <c r="F14" t="n">
-        <v>336.7360510318559</v>
+        <v>324.5603159413865</v>
       </c>
       <c r="G14" t="n">
-        <v>38.93954424562315</v>
+        <v>324.5603159413865</v>
       </c>
       <c r="H14" t="n">
-        <v>38.93954424562315</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="I14" t="n">
         <v>35.74099050576838</v>
@@ -5284,7 +5284,7 @@
         <v>323.2290557446588</v>
       </c>
       <c r="L14" t="n">
-        <v>562.2973247064784</v>
+        <v>562.2973247064785</v>
       </c>
       <c r="M14" t="n">
         <v>841.1329596152972</v>
@@ -5308,22 +5308,22 @@
         <v>1700.918407900826</v>
       </c>
       <c r="T14" t="n">
-        <v>1488.153676578333</v>
+        <v>1700.918407900826</v>
       </c>
       <c r="U14" t="n">
-        <v>1488.153676578333</v>
+        <v>1700.918407900826</v>
       </c>
       <c r="V14" t="n">
-        <v>1138.316121914813</v>
+        <v>1700.918407900826</v>
       </c>
       <c r="W14" t="n">
-        <v>1138.316121914813</v>
+        <v>1317.158107035995</v>
       </c>
       <c r="X14" t="n">
-        <v>737.6727240837658</v>
+        <v>1317.158107035995</v>
       </c>
       <c r="Y14" t="n">
-        <v>336.7360510318559</v>
+        <v>1317.158107035995</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>659.2658599562563</v>
+        <v>532.1086706583159</v>
       </c>
       <c r="C15" t="n">
-        <v>525.270788705202</v>
+        <v>398.1135994072616</v>
       </c>
       <c r="D15" t="n">
-        <v>430.6314409326409</v>
+        <v>281.216441626654</v>
       </c>
       <c r="E15" t="n">
-        <v>310.1386249249689</v>
+        <v>160.723625618982</v>
       </c>
       <c r="F15" t="n">
-        <v>201.1787451074734</v>
+        <v>51.76374580148655</v>
       </c>
       <c r="G15" t="n">
-        <v>95.34266624856059</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="H15" t="n">
         <v>35.74099050576838</v>
       </c>
       <c r="I15" t="n">
-        <v>35.74099050576838</v>
+        <v>54.34778796170228</v>
       </c>
       <c r="J15" t="n">
-        <v>91.74661827365901</v>
+        <v>354.0218197042262</v>
       </c>
       <c r="K15" t="n">
-        <v>219.1218605877237</v>
+        <v>481.3970620182909</v>
       </c>
       <c r="L15" t="n">
-        <v>661.4166180966074</v>
+        <v>671.4294235586131</v>
       </c>
       <c r="M15" t="n">
-        <v>891.0149523764979</v>
+        <v>901.0277578385036</v>
       </c>
       <c r="N15" t="n">
-        <v>1132.525572564489</v>
+        <v>1142.538378026494</v>
       </c>
       <c r="O15" t="n">
-        <v>1344.461590051556</v>
+        <v>1354.474395513562</v>
       </c>
       <c r="P15" t="n">
-        <v>1686.980039158656</v>
+        <v>1516.74184232776</v>
       </c>
       <c r="Q15" t="n">
-        <v>1775.234255540019</v>
+        <v>1687.264539063037</v>
       </c>
       <c r="R15" t="n">
         <v>1787.049525288419</v>
       </c>
       <c r="S15" t="n">
-        <v>1700.495187579393</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="T15" t="n">
-        <v>1545.804889936497</v>
+        <v>1632.359227645523</v>
       </c>
       <c r="U15" t="n">
-        <v>1348.530002352791</v>
+        <v>1435.084340061817</v>
       </c>
       <c r="V15" t="n">
-        <v>1348.530002352791</v>
+        <v>1221.372813054851</v>
       </c>
       <c r="W15" t="n">
-        <v>1135.29683408912</v>
+        <v>1008.13964479118</v>
       </c>
       <c r="X15" t="n">
-        <v>958.970852228013</v>
+        <v>831.8136629300725</v>
       </c>
       <c r="Y15" t="n">
-        <v>799.568892591843</v>
+        <v>672.4117032939025</v>
       </c>
     </row>
     <row r="16">
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>589.7745815283674</v>
+        <v>999.1593087758235</v>
       </c>
       <c r="C16" t="n">
-        <v>589.7745815283674</v>
+        <v>828.0659363375401</v>
       </c>
       <c r="D16" t="n">
-        <v>430.2799368512775</v>
+        <v>668.57129166045</v>
       </c>
       <c r="E16" t="n">
-        <v>430.2799368512775</v>
+        <v>507.6604765287695</v>
       </c>
       <c r="F16" t="n">
-        <v>430.2799368512775</v>
+        <v>343.0293506393608</v>
       </c>
       <c r="G16" t="n">
-        <v>263.9970489706581</v>
+        <v>176.7464627587414</v>
       </c>
       <c r="H16" t="n">
-        <v>122.991576717685</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="I16" t="n">
         <v>35.74099050576838</v>
@@ -5442,19 +5442,19 @@
         <v>381.5865293505955</v>
       </c>
       <c r="L16" t="n">
-        <v>468.4834142328665</v>
+        <v>782.4625254678897</v>
       </c>
       <c r="M16" t="n">
-        <v>906.3899496339454</v>
+        <v>875.4027113546831</v>
       </c>
       <c r="N16" t="n">
-        <v>1054.43908517848</v>
+        <v>1243.239884391383</v>
       </c>
       <c r="O16" t="n">
-        <v>1448.030505855774</v>
+        <v>1321.756545649937</v>
       </c>
       <c r="P16" t="n">
-        <v>1768.392458898498</v>
+        <v>1642.118498692661</v>
       </c>
       <c r="Q16" t="n">
         <v>1787.049525288419</v>
@@ -5472,16 +5472,16 @@
         <v>1227.119032459236</v>
       </c>
       <c r="V16" t="n">
-        <v>1227.119032459236</v>
+        <v>1223.895007387059</v>
       </c>
       <c r="W16" t="n">
-        <v>948.0493679681103</v>
+        <v>1223.895007387059</v>
       </c>
       <c r="X16" t="n">
-        <v>709.7055058277938</v>
+        <v>1223.895007387059</v>
       </c>
       <c r="Y16" t="n">
-        <v>589.7745815283674</v>
+        <v>999.1593087758235</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1129.22491108847</v>
+        <v>327.1582691984141</v>
       </c>
       <c r="C17" t="n">
-        <v>1129.22491108847</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="D17" t="n">
-        <v>1129.22491108847</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="E17" t="n">
-        <v>714.8846956053667</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="F17" t="n">
-        <v>327.7588696812413</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="G17" t="n">
-        <v>327.7588696812413</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="H17" t="n">
-        <v>38.93954424562315</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="I17" t="n">
-        <v>35.74099050576839</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="J17" t="n">
-        <v>142.5703854689904</v>
+        <v>142.5703854689899</v>
       </c>
       <c r="K17" t="n">
-        <v>323.2290557446594</v>
+        <v>323.2290557446589</v>
       </c>
       <c r="L17" t="n">
-        <v>562.297324706479</v>
+        <v>562.2973247064785</v>
       </c>
       <c r="M17" t="n">
-        <v>841.1329596152979</v>
+        <v>841.1329596152974</v>
       </c>
       <c r="N17" t="n">
-        <v>1126.34903900405</v>
+        <v>1126.349039004049</v>
       </c>
       <c r="O17" t="n">
-        <v>1390.269714189819</v>
+        <v>1390.269714189818</v>
       </c>
       <c r="P17" t="n">
         <v>1601.546999092374</v>
       </c>
       <c r="Q17" t="n">
-        <v>1740.697478824118</v>
+        <v>1740.697478824117</v>
       </c>
       <c r="R17" t="n">
         <v>1787.049525288419</v>
       </c>
       <c r="S17" t="n">
-        <v>1787.049525288419</v>
+        <v>1700.918407900826</v>
       </c>
       <c r="T17" t="n">
-        <v>1787.049525288419</v>
+        <v>1488.153676578333</v>
       </c>
       <c r="U17" t="n">
-        <v>1530.16158414038</v>
+        <v>1488.153676578333</v>
       </c>
       <c r="V17" t="n">
-        <v>1530.16158414038</v>
+        <v>1138.316121914813</v>
       </c>
       <c r="W17" t="n">
-        <v>1530.16158414038</v>
+        <v>1138.316121914813</v>
       </c>
       <c r="X17" t="n">
-        <v>1530.16158414038</v>
+        <v>1138.316121914813</v>
       </c>
       <c r="Y17" t="n">
-        <v>1129.22491108847</v>
+        <v>737.3794488629036</v>
       </c>
     </row>
     <row r="18">
@@ -5570,10 +5570,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>681.5236699643028</v>
+        <v>445.5543329492904</v>
       </c>
       <c r="C18" t="n">
-        <v>547.5285987132485</v>
+        <v>430.6314409326409</v>
       </c>
       <c r="D18" t="n">
         <v>430.6314409326409</v>
@@ -5585,34 +5585,34 @@
         <v>201.1787451074734</v>
       </c>
       <c r="G18" t="n">
-        <v>95.3426662485606</v>
+        <v>95.34266624856059</v>
       </c>
       <c r="H18" t="n">
-        <v>35.74099050576839</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="I18" t="n">
-        <v>35.74099050576839</v>
+        <v>54.34778796170228</v>
       </c>
       <c r="J18" t="n">
-        <v>335.4150222482922</v>
+        <v>354.0218197042262</v>
       </c>
       <c r="K18" t="n">
-        <v>462.7902645623569</v>
+        <v>481.3970620182909</v>
       </c>
       <c r="L18" t="n">
-        <v>652.8226261026791</v>
+        <v>671.4294235586131</v>
       </c>
       <c r="M18" t="n">
-        <v>882.4209603825697</v>
+        <v>983.2962381924185</v>
       </c>
       <c r="N18" t="n">
-        <v>1123.931580570561</v>
+        <v>1224.806858380409</v>
       </c>
       <c r="O18" t="n">
-        <v>1335.867598057628</v>
+        <v>1436.742875867477</v>
       </c>
       <c r="P18" t="n">
-        <v>1498.135044871826</v>
+        <v>1599.010322681675</v>
       </c>
       <c r="Q18" t="n">
         <v>1687.264539063038</v>
@@ -5621,25 +5621,25 @@
         <v>1787.049525288419</v>
       </c>
       <c r="S18" t="n">
-        <v>1700.495187579394</v>
+        <v>1700.495187579393</v>
       </c>
       <c r="T18" t="n">
-        <v>1545.804889936498</v>
+        <v>1545.804889936497</v>
       </c>
       <c r="U18" t="n">
         <v>1348.530002352792</v>
       </c>
       <c r="V18" t="n">
-        <v>1348.530002352792</v>
+        <v>1134.818475345825</v>
       </c>
       <c r="W18" t="n">
-        <v>1135.296834089121</v>
+        <v>921.5853070821541</v>
       </c>
       <c r="X18" t="n">
-        <v>958.9708522280134</v>
+        <v>745.259325221047</v>
       </c>
       <c r="Y18" t="n">
-        <v>821.8267025998895</v>
+        <v>585.857365584877</v>
       </c>
     </row>
     <row r="19">
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>772.8991011996003</v>
+        <v>925.4990798560598</v>
       </c>
       <c r="C19" t="n">
-        <v>601.8057287613168</v>
+        <v>754.4057074177763</v>
       </c>
       <c r="D19" t="n">
-        <v>442.3110840842268</v>
+        <v>594.9110627406862</v>
       </c>
       <c r="E19" t="n">
-        <v>442.3110840842268</v>
+        <v>594.9110627406862</v>
       </c>
       <c r="F19" t="n">
-        <v>289.2744645983045</v>
+        <v>430.2799368512775</v>
       </c>
       <c r="G19" t="n">
-        <v>122.991576717685</v>
+        <v>263.9970489706581</v>
       </c>
       <c r="H19" t="n">
         <v>122.991576717685</v>
       </c>
       <c r="I19" t="n">
-        <v>35.74099050576839</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="J19" t="n">
         <v>116.8648064467601</v>
@@ -5679,19 +5679,19 @@
         <v>381.5865293505955</v>
       </c>
       <c r="L19" t="n">
-        <v>468.4834142328665</v>
+        <v>782.4625254678897</v>
       </c>
       <c r="M19" t="n">
-        <v>906.3899496339454</v>
+        <v>875.4027113546831</v>
       </c>
       <c r="N19" t="n">
-        <v>1315.336568651599</v>
+        <v>969.3152853445271</v>
       </c>
       <c r="O19" t="n">
-        <v>1708.927989328892</v>
+        <v>1321.756545649937</v>
       </c>
       <c r="P19" t="n">
-        <v>1768.392458898499</v>
+        <v>1642.118498692661</v>
       </c>
       <c r="Q19" t="n">
         <v>1787.049525288419</v>
@@ -5700,25 +5700,25 @@
         <v>1745.279268752169</v>
       </c>
       <c r="S19" t="n">
-        <v>1745.279268752169</v>
+        <v>1575.748442655587</v>
       </c>
       <c r="T19" t="n">
-        <v>1509.86440701163</v>
+        <v>1340.333580915048</v>
       </c>
       <c r="U19" t="n">
-        <v>1509.86440701163</v>
+        <v>1337.93448486134</v>
       </c>
       <c r="V19" t="n">
-        <v>1235.978661951152</v>
+        <v>1337.93448486134</v>
       </c>
       <c r="W19" t="n">
-        <v>1235.978661951152</v>
+        <v>1337.93448486134</v>
       </c>
       <c r="X19" t="n">
-        <v>997.6347998108356</v>
+        <v>1337.93448486134</v>
       </c>
       <c r="Y19" t="n">
-        <v>772.8991011996003</v>
+        <v>1113.198786250104</v>
       </c>
     </row>
     <row r="20">
@@ -5728,40 +5728,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1143.364461331429</v>
+        <v>871.1116180351842</v>
       </c>
       <c r="C20" t="n">
-        <v>1143.364461331429</v>
+        <v>871.1116180351842</v>
       </c>
       <c r="D20" t="n">
-        <v>738.9005314244898</v>
+        <v>871.1116180351842</v>
       </c>
       <c r="E20" t="n">
-        <v>324.5603159413865</v>
+        <v>456.7714025520808</v>
       </c>
       <c r="F20" t="n">
-        <v>324.5603159413865</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="G20" t="n">
-        <v>324.5603159413865</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="H20" t="n">
-        <v>35.74099050576839</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="I20" t="n">
-        <v>35.74099050576839</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="J20" t="n">
-        <v>142.57038546899</v>
+        <v>142.5703854689898</v>
       </c>
       <c r="K20" t="n">
-        <v>323.229055744659</v>
+        <v>323.2290557446588</v>
       </c>
       <c r="L20" t="n">
-        <v>562.2973247064787</v>
+        <v>562.2973247064784</v>
       </c>
       <c r="M20" t="n">
-        <v>841.1329596152974</v>
+        <v>841.1329596152973</v>
       </c>
       <c r="N20" t="n">
         <v>1126.349039004049</v>
@@ -5770,34 +5770,34 @@
         <v>1390.269714189818</v>
       </c>
       <c r="P20" t="n">
-        <v>1601.546999092374</v>
+        <v>1601.546999092373</v>
       </c>
       <c r="Q20" t="n">
-        <v>1740.697478824118</v>
+        <v>1740.697478824117</v>
       </c>
       <c r="R20" t="n">
         <v>1787.049525288419</v>
       </c>
       <c r="S20" t="n">
-        <v>1787.049525288419</v>
+        <v>1700.918407900826</v>
       </c>
       <c r="T20" t="n">
-        <v>1787.049525288419</v>
+        <v>1488.153676578333</v>
       </c>
       <c r="U20" t="n">
-        <v>1530.16158414038</v>
+        <v>1271.755015866232</v>
       </c>
       <c r="V20" t="n">
-        <v>1530.16158414038</v>
+        <v>1271.755015866232</v>
       </c>
       <c r="W20" t="n">
-        <v>1146.401283275549</v>
+        <v>1271.755015866232</v>
       </c>
       <c r="X20" t="n">
-        <v>1146.401283275549</v>
+        <v>871.1116180351842</v>
       </c>
       <c r="Y20" t="n">
-        <v>1143.364461331429</v>
+        <v>871.1116180351842</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>466.7277112878945</v>
+        <v>455.1947750977179</v>
       </c>
       <c r="C21" t="n">
-        <v>332.7326400368402</v>
+        <v>321.1997038466636</v>
       </c>
       <c r="D21" t="n">
-        <v>215.8354822562326</v>
+        <v>204.302546066056</v>
       </c>
       <c r="E21" t="n">
-        <v>95.3426662485606</v>
+        <v>204.302546066056</v>
       </c>
       <c r="F21" t="n">
-        <v>95.3426662485606</v>
+        <v>95.34266624856059</v>
       </c>
       <c r="G21" t="n">
-        <v>95.3426662485606</v>
+        <v>95.34266624856059</v>
       </c>
       <c r="H21" t="n">
-        <v>35.74099050576839</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="I21" t="n">
-        <v>54.34778796170229</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="J21" t="n">
-        <v>110.3534157295929</v>
+        <v>170.2194754076015</v>
       </c>
       <c r="K21" t="n">
-        <v>237.7286580436576</v>
+        <v>297.5947177216662</v>
       </c>
       <c r="L21" t="n">
-        <v>680.0234155525413</v>
+        <v>487.6270792619885</v>
       </c>
       <c r="M21" t="n">
-        <v>909.6217498324319</v>
+        <v>717.225413541879</v>
       </c>
       <c r="N21" t="n">
-        <v>1224.80685838041</v>
+        <v>958.73603372987</v>
       </c>
       <c r="O21" t="n">
-        <v>1436.742875867477</v>
+        <v>1170.672051216937</v>
       </c>
       <c r="P21" t="n">
-        <v>1599.010322681675</v>
+        <v>1332.939498031135</v>
       </c>
       <c r="Q21" t="n">
-        <v>1687.264539063038</v>
+        <v>1775.234255540019</v>
       </c>
       <c r="R21" t="n">
         <v>1787.049525288419</v>
       </c>
       <c r="S21" t="n">
-        <v>1700.495187579394</v>
+        <v>1710.135629727821</v>
       </c>
       <c r="T21" t="n">
-        <v>1545.804889936498</v>
+        <v>1555.445332084925</v>
       </c>
       <c r="U21" t="n">
-        <v>1348.530002352792</v>
+        <v>1358.170444501219</v>
       </c>
       <c r="V21" t="n">
-        <v>1134.818475345826</v>
+        <v>1144.458917494253</v>
       </c>
       <c r="W21" t="n">
-        <v>921.5853070821544</v>
+        <v>931.2257492305816</v>
       </c>
       <c r="X21" t="n">
-        <v>745.2593252210472</v>
+        <v>754.8997673694745</v>
       </c>
       <c r="Y21" t="n">
-        <v>585.8573655848772</v>
+        <v>595.4978077333045</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>594.5850660860315</v>
+        <v>508.7506503287054</v>
       </c>
       <c r="C22" t="n">
-        <v>423.491693647748</v>
+        <v>337.6572778904219</v>
       </c>
       <c r="D22" t="n">
-        <v>263.9970489706581</v>
+        <v>337.6572778904219</v>
       </c>
       <c r="E22" t="n">
-        <v>263.9970489706581</v>
+        <v>176.7464627587414</v>
       </c>
       <c r="F22" t="n">
-        <v>263.9970489706581</v>
+        <v>176.7464627587414</v>
       </c>
       <c r="G22" t="n">
-        <v>263.9970489706581</v>
+        <v>176.7464627587414</v>
       </c>
       <c r="H22" t="n">
-        <v>122.991576717685</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="I22" t="n">
-        <v>35.74099050576839</v>
+        <v>35.74099050576838</v>
       </c>
       <c r="J22" t="n">
         <v>116.8648064467601</v>
       </c>
       <c r="K22" t="n">
-        <v>175.3063357648813</v>
+        <v>381.5865293505955</v>
       </c>
       <c r="L22" t="n">
-        <v>535.5520238542576</v>
+        <v>782.4625254678897</v>
       </c>
       <c r="M22" t="n">
-        <v>628.4922097410511</v>
+        <v>889.3896932141686</v>
       </c>
       <c r="N22" t="n">
-        <v>1054.439085178481</v>
+        <v>1315.336568651598</v>
       </c>
       <c r="O22" t="n">
-        <v>1448.030505855774</v>
+        <v>1708.927989328892</v>
       </c>
       <c r="P22" t="n">
-        <v>1768.392458898499</v>
+        <v>1768.392458898498</v>
       </c>
       <c r="Q22" t="n">
         <v>1787.049525288419</v>
       </c>
       <c r="R22" t="n">
-        <v>1787.049525288419</v>
+        <v>1745.279268752169</v>
       </c>
       <c r="S22" t="n">
-        <v>1617.518699191837</v>
+        <v>1575.748442655587</v>
       </c>
       <c r="T22" t="n">
-        <v>1382.103837451298</v>
+        <v>1340.333580915048</v>
       </c>
       <c r="U22" t="n">
-        <v>1286.090135582437</v>
+        <v>1057.588206362654</v>
       </c>
       <c r="V22" t="n">
-        <v>1286.090135582437</v>
+        <v>783.7024613021758</v>
       </c>
       <c r="W22" t="n">
-        <v>1007.020471091311</v>
+        <v>783.7024613021758</v>
       </c>
       <c r="X22" t="n">
-        <v>1007.020471091311</v>
+        <v>545.3585991618593</v>
       </c>
       <c r="Y22" t="n">
-        <v>782.2847724800758</v>
+        <v>545.3585991618593</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1122.213218537195</v>
+        <v>423.6473620080468</v>
       </c>
       <c r="C23" t="n">
-        <v>1122.213218537195</v>
+        <v>423.6473620080468</v>
       </c>
       <c r="D23" t="n">
-        <v>717.7492886302557</v>
+        <v>423.6473620080468</v>
       </c>
       <c r="E23" t="n">
-        <v>717.7492886302557</v>
+        <v>329.3760166967949</v>
       </c>
       <c r="F23" t="n">
-        <v>717.7492886302557</v>
+        <v>329.3760166967949</v>
       </c>
       <c r="G23" t="n">
         <v>329.3760166967949</v>
@@ -5995,19 +5995,19 @@
         <v>328.0447565000673</v>
       </c>
       <c r="L23" t="n">
-        <v>567.1130254618869</v>
+        <v>676.0866954007586</v>
       </c>
       <c r="M23" t="n">
-        <v>845.9486603707057</v>
+        <v>954.9223303095774</v>
       </c>
       <c r="N23" t="n">
-        <v>1131.164739759458</v>
+        <v>1240.138409698329</v>
       </c>
       <c r="O23" t="n">
-        <v>1395.085414945227</v>
+        <v>1504.059084884098</v>
       </c>
       <c r="P23" t="n">
-        <v>1606.362699847782</v>
+        <v>1715.336369786654</v>
       </c>
       <c r="Q23" t="n">
         <v>1854.486849518397</v>
@@ -6016,25 +6016,25 @@
         <v>2027.83456305884</v>
       </c>
       <c r="S23" t="n">
-        <v>1941.703445671247</v>
+        <v>2027.83456305884</v>
       </c>
       <c r="T23" t="n">
-        <v>1728.938714348754</v>
+        <v>1815.069831736347</v>
       </c>
       <c r="U23" t="n">
-        <v>1472.050773200715</v>
+        <v>1558.181890588307</v>
       </c>
       <c r="V23" t="n">
-        <v>1122.213218537195</v>
+        <v>1208.344335924788</v>
       </c>
       <c r="W23" t="n">
-        <v>1122.213218537195</v>
+        <v>824.5840350599567</v>
       </c>
       <c r="X23" t="n">
-        <v>1122.213218537195</v>
+        <v>824.5840350599567</v>
       </c>
       <c r="Y23" t="n">
-        <v>1122.213218537195</v>
+        <v>423.6473620080468</v>
       </c>
     </row>
     <row r="24">
@@ -6059,7 +6059,7 @@
         <v>205.994445862882</v>
       </c>
       <c r="G24" t="n">
-        <v>100.158367003969</v>
+        <v>100.1583670039693</v>
       </c>
       <c r="H24" t="n">
         <v>40.5566912611768</v>
@@ -6089,7 +6089,7 @@
         <v>1502.950745627234</v>
       </c>
       <c r="Q24" t="n">
-        <v>1928.049576833459</v>
+        <v>1997.175119012371</v>
       </c>
       <c r="R24" t="n">
         <v>2027.83456305884</v>
@@ -6123,46 +6123,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>352.6555359524334</v>
+        <v>1091.225595743149</v>
       </c>
       <c r="C25" t="n">
-        <v>181.5621635141499</v>
+        <v>920.1322233048652</v>
       </c>
       <c r="D25" t="n">
-        <v>181.5621635141499</v>
+        <v>760.6375786277752</v>
       </c>
       <c r="E25" t="n">
-        <v>181.5621635141499</v>
+        <v>599.7267634960947</v>
       </c>
       <c r="F25" t="n">
-        <v>181.5621635141499</v>
+        <v>435.095637606686</v>
       </c>
       <c r="G25" t="n">
-        <v>181.5621635141499</v>
+        <v>268.8127497260665</v>
       </c>
       <c r="H25" t="n">
-        <v>40.5566912611768</v>
+        <v>127.8072774730934</v>
       </c>
       <c r="I25" t="n">
         <v>40.5566912611768</v>
       </c>
       <c r="J25" t="n">
-        <v>121.6805072021685</v>
+        <v>56.6791435708321</v>
       </c>
       <c r="K25" t="n">
-        <v>345.5694754118392</v>
+        <v>115.1206728889534</v>
       </c>
       <c r="L25" t="n">
-        <v>746.4454715291333</v>
+        <v>515.9966690062475</v>
       </c>
       <c r="M25" t="n">
-        <v>1184.352006930212</v>
+        <v>953.9032044073265</v>
       </c>
       <c r="N25" t="n">
-        <v>1610.298882367642</v>
+        <v>1379.850079844756</v>
       </c>
       <c r="O25" t="n">
-        <v>1688.815543626195</v>
+        <v>1773.44150052205</v>
       </c>
       <c r="P25" t="n">
         <v>2009.17749666892</v>
@@ -6177,22 +6177,22 @@
         <v>1816.533480426008</v>
       </c>
       <c r="T25" t="n">
-        <v>1581.118618685469</v>
+        <v>1816.533480426008</v>
       </c>
       <c r="U25" t="n">
-        <v>1368.690506255589</v>
+        <v>1816.533480426008</v>
       </c>
       <c r="V25" t="n">
-        <v>1094.804761195111</v>
+        <v>1742.004862888745</v>
       </c>
       <c r="W25" t="n">
-        <v>815.7350967039852</v>
+        <v>1742.004862888745</v>
       </c>
       <c r="X25" t="n">
-        <v>577.3912345636686</v>
+        <v>1503.661000748428</v>
       </c>
       <c r="Y25" t="n">
-        <v>352.6555359524334</v>
+        <v>1278.925302137193</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>540.9964693303677</v>
+        <v>603.2685811888999</v>
       </c>
       <c r="C26" t="n">
-        <v>540.9964693303677</v>
+        <v>603.2685811888999</v>
       </c>
       <c r="D26" t="n">
-        <v>540.9964693303677</v>
+        <v>603.2685811888999</v>
       </c>
       <c r="E26" t="n">
-        <v>540.9964693303677</v>
+        <v>188.9283657057966</v>
       </c>
       <c r="F26" t="n">
-        <v>119.9660572840553</v>
+        <v>188.9283657057966</v>
       </c>
       <c r="G26" t="n">
         <v>40.5566912611768</v>
@@ -6253,25 +6253,25 @@
         <v>2027.83456305884</v>
       </c>
       <c r="S26" t="n">
-        <v>1941.703445671247</v>
+        <v>2027.83456305884</v>
       </c>
       <c r="T26" t="n">
-        <v>1941.703445671247</v>
+        <v>1815.069831736347</v>
       </c>
       <c r="U26" t="n">
-        <v>1684.815504523208</v>
+        <v>1815.069831736347</v>
       </c>
       <c r="V26" t="n">
-        <v>1334.977949859689</v>
+        <v>1815.069831736347</v>
       </c>
       <c r="W26" t="n">
-        <v>951.2176489948572</v>
+        <v>1815.069831736347</v>
       </c>
       <c r="X26" t="n">
-        <v>951.2176489948572</v>
+        <v>1414.426433905299</v>
       </c>
       <c r="Y26" t="n">
-        <v>951.2176489948572</v>
+        <v>1013.489760853389</v>
       </c>
     </row>
     <row r="27">
@@ -6296,7 +6296,7 @@
         <v>205.994445862882</v>
       </c>
       <c r="G27" t="n">
-        <v>100.1583670039693</v>
+        <v>100.158367003969</v>
       </c>
       <c r="H27" t="n">
         <v>40.5566912611768</v>
@@ -6308,25 +6308,25 @@
         <v>340.2307230037007</v>
       </c>
       <c r="K27" t="n">
-        <v>486.4501396158344</v>
+        <v>467.6059653177654</v>
       </c>
       <c r="L27" t="n">
-        <v>676.4825011561567</v>
+        <v>657.6383268580876</v>
       </c>
       <c r="M27" t="n">
-        <v>906.0808354360472</v>
+        <v>887.2366611379781</v>
       </c>
       <c r="N27" t="n">
-        <v>1147.591455624038</v>
+        <v>1128.747281325969</v>
       </c>
       <c r="O27" t="n">
-        <v>1359.527473111106</v>
+        <v>1340.683298813036</v>
       </c>
       <c r="P27" t="n">
-        <v>1521.794919925303</v>
+        <v>1502.950745627234</v>
       </c>
       <c r="Q27" t="n">
-        <v>2016.01929331044</v>
+        <v>1997.175119012371</v>
       </c>
       <c r="R27" t="n">
         <v>2027.83456305884</v>
@@ -6360,46 +6360,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1003.975009531232</v>
+        <v>920.1322233048652</v>
       </c>
       <c r="C28" t="n">
-        <v>832.8816370929485</v>
+        <v>920.1322233048652</v>
       </c>
       <c r="D28" t="n">
-        <v>673.3869924158585</v>
+        <v>760.6375786277752</v>
       </c>
       <c r="E28" t="n">
-        <v>512.476177284178</v>
+        <v>599.7267634960947</v>
       </c>
       <c r="F28" t="n">
-        <v>347.8450513947693</v>
+        <v>435.095637606686</v>
       </c>
       <c r="G28" t="n">
-        <v>181.5621635141499</v>
+        <v>268.8127497260665</v>
       </c>
       <c r="H28" t="n">
-        <v>40.5566912611768</v>
+        <v>127.8072774730934</v>
       </c>
       <c r="I28" t="n">
         <v>40.5566912611768</v>
       </c>
       <c r="J28" t="n">
-        <v>79.75210432428645</v>
+        <v>56.6791435708321</v>
       </c>
       <c r="K28" t="n">
-        <v>344.4738272281219</v>
+        <v>115.1206728889534</v>
       </c>
       <c r="L28" t="n">
-        <v>431.370712110393</v>
+        <v>515.9966690062475</v>
       </c>
       <c r="M28" t="n">
-        <v>869.2772475114718</v>
+        <v>953.9032044073265</v>
       </c>
       <c r="N28" t="n">
-        <v>1295.224122948901</v>
+        <v>1379.850079844756</v>
       </c>
       <c r="O28" t="n">
-        <v>1688.815543626195</v>
+        <v>1773.44150052205</v>
       </c>
       <c r="P28" t="n">
         <v>2009.17749666892</v>
@@ -6408,28 +6408,28 @@
         <v>2027.83456305884</v>
       </c>
       <c r="R28" t="n">
-        <v>2027.83456305884</v>
+        <v>1986.06430652259</v>
       </c>
       <c r="S28" t="n">
-        <v>1937.499651229222</v>
+        <v>1816.533480426008</v>
       </c>
       <c r="T28" t="n">
-        <v>1937.499651229222</v>
+        <v>1816.533480426008</v>
       </c>
       <c r="U28" t="n">
-        <v>1654.754276676828</v>
+        <v>1816.533480426008</v>
       </c>
       <c r="V28" t="n">
-        <v>1654.754276676828</v>
+        <v>1542.64773536553</v>
       </c>
       <c r="W28" t="n">
-        <v>1654.754276676828</v>
+        <v>1383.211784056417</v>
       </c>
       <c r="X28" t="n">
-        <v>1416.410414536512</v>
+        <v>1144.8679219161</v>
       </c>
       <c r="Y28" t="n">
-        <v>1191.674715925276</v>
+        <v>920.1322233048652</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1061.829593536225</v>
+        <v>868.1585050090266</v>
       </c>
       <c r="C29" t="n">
-        <v>651.7050028494951</v>
+        <v>868.1585050090266</v>
       </c>
       <c r="D29" t="n">
-        <v>447.1280929627141</v>
+        <v>868.1585050090266</v>
       </c>
       <c r="E29" t="n">
-        <v>447.1280929627141</v>
+        <v>868.1585050090266</v>
       </c>
       <c r="F29" t="n">
         <v>447.1280929627141</v>
       </c>
       <c r="G29" t="n">
-        <v>40.55669126117681</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="H29" t="n">
-        <v>40.55669126117681</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="I29" t="n">
-        <v>40.55669126117681</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="J29" t="n">
-        <v>147.3860862243982</v>
+        <v>256.3597561632699</v>
       </c>
       <c r="K29" t="n">
-        <v>328.0447565000673</v>
+        <v>437.0184264389389</v>
       </c>
       <c r="L29" t="n">
-        <v>567.1130254618869</v>
+        <v>676.0866954007586</v>
       </c>
       <c r="M29" t="n">
-        <v>845.9486603707057</v>
+        <v>954.9223303095774</v>
       </c>
       <c r="N29" t="n">
-        <v>1131.164739759458</v>
+        <v>1240.138409698329</v>
       </c>
       <c r="O29" t="n">
-        <v>1395.085414945227</v>
+        <v>1504.059084884098</v>
       </c>
       <c r="P29" t="n">
-        <v>1606.362699847782</v>
+        <v>1715.336369786654</v>
       </c>
       <c r="Q29" t="n">
-        <v>1981.482516594539</v>
+        <v>1854.486849518397</v>
       </c>
       <c r="R29" t="n">
         <v>2027.83456305884</v>
       </c>
       <c r="S29" t="n">
-        <v>1941.703445671247</v>
+        <v>2027.83456305884</v>
       </c>
       <c r="T29" t="n">
-        <v>1728.938714348754</v>
+        <v>1815.069831736347</v>
       </c>
       <c r="U29" t="n">
-        <v>1472.050773200715</v>
+        <v>1815.069831736347</v>
       </c>
       <c r="V29" t="n">
-        <v>1472.050773200715</v>
+        <v>1815.069831736347</v>
       </c>
       <c r="W29" t="n">
-        <v>1472.050773200715</v>
+        <v>1815.069831736347</v>
       </c>
       <c r="X29" t="n">
-        <v>1472.050773200715</v>
+        <v>1679.316357725426</v>
       </c>
       <c r="Y29" t="n">
-        <v>1472.050773200715</v>
+        <v>1278.379684673516</v>
       </c>
     </row>
     <row r="30">
@@ -6524,61 +6524,61 @@
         <v>552.3442994686571</v>
       </c>
       <c r="D30" t="n">
-        <v>435.4471416880497</v>
+        <v>435.4471416880494</v>
       </c>
       <c r="E30" t="n">
-        <v>314.9543256803777</v>
+        <v>314.9543256803775</v>
       </c>
       <c r="F30" t="n">
-        <v>205.9944458628822</v>
+        <v>205.994445862882</v>
       </c>
       <c r="G30" t="n">
         <v>100.1583670039693</v>
       </c>
       <c r="H30" t="n">
-        <v>40.55669126117681</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="I30" t="n">
-        <v>40.55669126117681</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="J30" t="n">
         <v>340.2307230037007</v>
       </c>
       <c r="K30" t="n">
-        <v>804.4505801426269</v>
+        <v>467.6059653177654</v>
       </c>
       <c r="L30" t="n">
-        <v>994.4829416829492</v>
+        <v>657.6383268580876</v>
       </c>
       <c r="M30" t="n">
-        <v>1224.08127596284</v>
+        <v>887.2366611379781</v>
       </c>
       <c r="N30" t="n">
-        <v>1465.591896150831</v>
+        <v>1128.747281325969</v>
       </c>
       <c r="O30" t="n">
-        <v>1677.527913637898</v>
+        <v>1340.683298813036</v>
       </c>
       <c r="P30" t="n">
-        <v>1839.795360452096</v>
+        <v>1502.950745627234</v>
       </c>
       <c r="Q30" t="n">
-        <v>1928.049576833459</v>
+        <v>1997.175119012371</v>
       </c>
       <c r="R30" t="n">
         <v>2027.83456305884</v>
       </c>
       <c r="S30" t="n">
-        <v>1941.280225349815</v>
+        <v>1941.280225349814</v>
       </c>
       <c r="T30" t="n">
-        <v>1786.589927706919</v>
+        <v>1786.589927706918</v>
       </c>
       <c r="U30" t="n">
         <v>1589.315040123213</v>
       </c>
       <c r="V30" t="n">
-        <v>1375.603513116247</v>
+        <v>1375.603513116246</v>
       </c>
       <c r="W30" t="n">
         <v>1162.370344852575</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1003.975009531232</v>
+        <v>530.965349708295</v>
       </c>
       <c r="C31" t="n">
-        <v>832.8816370929485</v>
+        <v>530.965349708295</v>
       </c>
       <c r="D31" t="n">
-        <v>673.3869924158585</v>
+        <v>371.4707050312049</v>
       </c>
       <c r="E31" t="n">
-        <v>512.476177284178</v>
+        <v>371.4707050312049</v>
       </c>
       <c r="F31" t="n">
-        <v>347.8450513947693</v>
+        <v>206.8395791417962</v>
       </c>
       <c r="G31" t="n">
-        <v>181.5621635141499</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="H31" t="n">
-        <v>40.55669126117681</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="I31" t="n">
-        <v>40.55669126117681</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="J31" t="n">
-        <v>121.6805072021685</v>
+        <v>56.6791435708321</v>
       </c>
       <c r="K31" t="n">
-        <v>386.4022301060039</v>
+        <v>115.1206728889534</v>
       </c>
       <c r="L31" t="n">
-        <v>787.2782262232981</v>
+        <v>515.9966690062475</v>
       </c>
       <c r="M31" t="n">
-        <v>1225.184761624377</v>
+        <v>953.9032044073265</v>
       </c>
       <c r="N31" t="n">
-        <v>1319.097335614221</v>
+        <v>1379.850079844756</v>
       </c>
       <c r="O31" t="n">
-        <v>1712.688756291515</v>
+        <v>1773.44150052205</v>
       </c>
       <c r="P31" t="n">
-        <v>1882.903536463083</v>
+        <v>1882.903536463082</v>
       </c>
       <c r="Q31" t="n">
         <v>2027.83456305884</v>
       </c>
       <c r="R31" t="n">
-        <v>1986.06430652259</v>
+        <v>2027.83456305884</v>
       </c>
       <c r="S31" t="n">
-        <v>1986.06430652259</v>
+        <v>1858.303736962258</v>
       </c>
       <c r="T31" t="n">
-        <v>1986.06430652259</v>
+        <v>1858.303736962258</v>
       </c>
       <c r="U31" t="n">
-        <v>1986.06430652259</v>
+        <v>1575.558362409864</v>
       </c>
       <c r="V31" t="n">
-        <v>1933.823941167954</v>
+        <v>1301.672617349386</v>
       </c>
       <c r="W31" t="n">
-        <v>1654.754276676828</v>
+        <v>1181.744616853891</v>
       </c>
       <c r="X31" t="n">
-        <v>1416.410414536512</v>
+        <v>943.4007547135747</v>
       </c>
       <c r="Y31" t="n">
-        <v>1191.674715925276</v>
+        <v>718.6650561023393</v>
       </c>
     </row>
     <row r="32">
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1276.175623901159</v>
+        <v>918.0741368532169</v>
       </c>
       <c r="C32" t="n">
-        <v>866.0510332144288</v>
+        <v>918.0741368532169</v>
       </c>
       <c r="D32" t="n">
-        <v>461.5871033074893</v>
+        <v>918.0741368532169</v>
       </c>
       <c r="E32" t="n">
-        <v>461.5871033074893</v>
+        <v>503.7339213701136</v>
       </c>
       <c r="F32" t="n">
-        <v>40.55669126117681</v>
+        <v>82.7035093238012</v>
       </c>
       <c r="G32" t="n">
-        <v>40.55669126117681</v>
+        <v>82.7035093238012</v>
       </c>
       <c r="H32" t="n">
-        <v>40.55669126117681</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="I32" t="n">
-        <v>40.55669126117681</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="J32" t="n">
         <v>383.355423239411</v>
@@ -6727,25 +6727,25 @@
         <v>2027.83456305884</v>
       </c>
       <c r="S32" t="n">
-        <v>2027.83456305884</v>
+        <v>1941.703445671247</v>
       </c>
       <c r="T32" t="n">
-        <v>2027.83456305884</v>
+        <v>1728.938714348754</v>
       </c>
       <c r="U32" t="n">
-        <v>2027.83456305884</v>
+        <v>1728.938714348754</v>
       </c>
       <c r="V32" t="n">
-        <v>2027.83456305884</v>
+        <v>1728.938714348754</v>
       </c>
       <c r="W32" t="n">
-        <v>2027.83456305884</v>
+        <v>1728.938714348754</v>
       </c>
       <c r="X32" t="n">
-        <v>2027.83456305884</v>
+        <v>1328.295316517706</v>
       </c>
       <c r="Y32" t="n">
-        <v>1626.897890006931</v>
+        <v>1328.295316517706</v>
       </c>
     </row>
     <row r="33">
@@ -6755,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>686.3393707197113</v>
+        <v>686.3393707197114</v>
       </c>
       <c r="C33" t="n">
-        <v>552.3442994686569</v>
+        <v>552.3442994686571</v>
       </c>
       <c r="D33" t="n">
-        <v>435.4471416880493</v>
+        <v>435.4471416880494</v>
       </c>
       <c r="E33" t="n">
-        <v>314.9543256803773</v>
+        <v>314.9543256803775</v>
       </c>
       <c r="F33" t="n">
-        <v>205.9944458628819</v>
+        <v>205.994445862882</v>
       </c>
       <c r="G33" t="n">
-        <v>100.158367003969</v>
+        <v>100.1583670039693</v>
       </c>
       <c r="H33" t="n">
-        <v>40.55669126117681</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="I33" t="n">
-        <v>40.55669126117681</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="J33" t="n">
         <v>340.2307230037007</v>
@@ -6800,7 +6800,7 @@
         <v>1502.950745627234</v>
       </c>
       <c r="Q33" t="n">
-        <v>1928.049576833458</v>
+        <v>1997.175119012371</v>
       </c>
       <c r="R33" t="n">
         <v>2027.83456305884</v>
@@ -6812,7 +6812,7 @@
         <v>1786.589927706918</v>
       </c>
       <c r="U33" t="n">
-        <v>1589.315040123212</v>
+        <v>1589.315040123213</v>
       </c>
       <c r="V33" t="n">
         <v>1375.603513116246</v>
@@ -6821,10 +6821,10 @@
         <v>1162.370344852575</v>
       </c>
       <c r="X33" t="n">
-        <v>986.0443629914679</v>
+        <v>986.044362991468</v>
       </c>
       <c r="Y33" t="n">
-        <v>826.6424033552979</v>
+        <v>826.642403355298</v>
       </c>
     </row>
     <row r="34">
@@ -6834,49 +6834,49 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>282.3382738299195</v>
+        <v>206.8395791417962</v>
       </c>
       <c r="C34" t="n">
-        <v>282.3382738299195</v>
+        <v>206.8395791417962</v>
       </c>
       <c r="D34" t="n">
-        <v>282.3382738299195</v>
+        <v>206.8395791417962</v>
       </c>
       <c r="E34" t="n">
-        <v>282.3382738299195</v>
+        <v>206.8395791417962</v>
       </c>
       <c r="F34" t="n">
-        <v>268.8127497260665</v>
+        <v>206.8395791417962</v>
       </c>
       <c r="G34" t="n">
-        <v>268.8127497260665</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="H34" t="n">
-        <v>127.8072774730935</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="I34" t="n">
-        <v>40.55669126117681</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="J34" t="n">
-        <v>56.67914357083211</v>
+        <v>121.6805072021685</v>
       </c>
       <c r="K34" t="n">
-        <v>321.4008664746675</v>
+        <v>386.4022301060039</v>
       </c>
       <c r="L34" t="n">
-        <v>722.2768625919616</v>
+        <v>787.2782262232981</v>
       </c>
       <c r="M34" t="n">
-        <v>1160.18339799304</v>
+        <v>880.2184121100915</v>
       </c>
       <c r="N34" t="n">
-        <v>1586.13027343047</v>
+        <v>1168.950162743064</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.815543626195</v>
+        <v>1562.541583420358</v>
       </c>
       <c r="P34" t="n">
-        <v>2009.17749666892</v>
+        <v>1882.903536463082</v>
       </c>
       <c r="Q34" t="n">
         <v>2027.83456305884</v>
@@ -6897,13 +6897,13 @@
         <v>1024.487499072597</v>
       </c>
       <c r="W34" t="n">
-        <v>745.4178345814714</v>
+        <v>745.4178345814712</v>
       </c>
       <c r="X34" t="n">
-        <v>507.0739724411548</v>
+        <v>507.0739724411546</v>
       </c>
       <c r="Y34" t="n">
-        <v>282.3382738299195</v>
+        <v>282.3382738299193</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>976.1849477928813</v>
+        <v>846.7763221142452</v>
       </c>
       <c r="C35" t="n">
-        <v>566.0603571061514</v>
+        <v>846.7763221142452</v>
       </c>
       <c r="D35" t="n">
         <v>442.3123922073057</v>
@@ -6928,61 +6928,61 @@
         <v>442.3123922073057</v>
       </c>
       <c r="G35" t="n">
-        <v>35.74099050576837</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="H35" t="n">
-        <v>35.74099050576837</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="I35" t="n">
-        <v>35.74099050576837</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="J35" t="n">
-        <v>142.5703854689898</v>
+        <v>142.57038546899</v>
       </c>
       <c r="K35" t="n">
-        <v>323.2290557446588</v>
+        <v>323.2290557446593</v>
       </c>
       <c r="L35" t="n">
-        <v>562.2973247064784</v>
+        <v>562.297324706479</v>
       </c>
       <c r="M35" t="n">
-        <v>841.1329596152973</v>
+        <v>841.1329596152976</v>
       </c>
       <c r="N35" t="n">
-        <v>1126.349039004049</v>
+        <v>1126.34903900405</v>
       </c>
       <c r="O35" t="n">
-        <v>1390.269714189818</v>
+        <v>1390.269714189819</v>
       </c>
       <c r="P35" t="n">
-        <v>1601.546999092373</v>
+        <v>1601.546999092374</v>
       </c>
       <c r="Q35" t="n">
-        <v>1740.697478824117</v>
+        <v>1740.697478824118</v>
       </c>
       <c r="R35" t="n">
-        <v>1787.049525288418</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="S35" t="n">
-        <v>1787.049525288418</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="T35" t="n">
-        <v>1787.049525288418</v>
+        <v>1606.835056442254</v>
       </c>
       <c r="U35" t="n">
-        <v>1787.049525288418</v>
+        <v>1606.835056442254</v>
       </c>
       <c r="V35" t="n">
-        <v>1787.049525288418</v>
+        <v>1256.997501778735</v>
       </c>
       <c r="W35" t="n">
-        <v>1787.049525288418</v>
+        <v>1256.997501778735</v>
       </c>
       <c r="X35" t="n">
-        <v>1386.406127457371</v>
+        <v>1256.997501778735</v>
       </c>
       <c r="Y35" t="n">
-        <v>1386.406127457371</v>
+        <v>1256.997501778735</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>561.0308539566308</v>
+        <v>445.5543329492906</v>
       </c>
       <c r="C36" t="n">
-        <v>427.0357827055765</v>
+        <v>311.5592616982363</v>
       </c>
       <c r="D36" t="n">
-        <v>310.1386249249689</v>
+        <v>250.5369491821766</v>
       </c>
       <c r="E36" t="n">
-        <v>310.1386249249689</v>
+        <v>250.5369491821766</v>
       </c>
       <c r="F36" t="n">
-        <v>201.1787451074734</v>
+        <v>141.5770693646812</v>
       </c>
       <c r="G36" t="n">
-        <v>95.34266624856059</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="H36" t="n">
-        <v>35.74099050576837</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="I36" t="n">
-        <v>35.74099050576837</v>
+        <v>54.34778796170229</v>
       </c>
       <c r="J36" t="n">
-        <v>335.4150222482922</v>
+        <v>354.0218197042262</v>
       </c>
       <c r="K36" t="n">
-        <v>563.6655423722048</v>
+        <v>481.3970620182909</v>
       </c>
       <c r="L36" t="n">
-        <v>753.6979039125271</v>
+        <v>671.4294235586131</v>
       </c>
       <c r="M36" t="n">
-        <v>983.2962381924176</v>
+        <v>901.0277578385036</v>
       </c>
       <c r="N36" t="n">
-        <v>1224.806858380409</v>
+        <v>1142.538378026494</v>
       </c>
       <c r="O36" t="n">
-        <v>1436.742875867476</v>
+        <v>1354.474395513562</v>
       </c>
       <c r="P36" t="n">
-        <v>1599.010322681674</v>
+        <v>1516.74184232776</v>
       </c>
       <c r="Q36" t="n">
-        <v>1687.264539063037</v>
+        <v>1687.264539063038</v>
       </c>
       <c r="R36" t="n">
-        <v>1787.049525288418</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="S36" t="n">
-        <v>1700.495187579392</v>
+        <v>1700.495187579394</v>
       </c>
       <c r="T36" t="n">
-        <v>1545.804889936496</v>
+        <v>1545.804889936498</v>
       </c>
       <c r="U36" t="n">
-        <v>1348.530002352791</v>
+        <v>1348.530002352792</v>
       </c>
       <c r="V36" t="n">
-        <v>1134.818475345824</v>
+        <v>1134.818475345826</v>
       </c>
       <c r="W36" t="n">
-        <v>921.5853070821532</v>
+        <v>921.5853070821544</v>
       </c>
       <c r="X36" t="n">
-        <v>745.2593252210461</v>
+        <v>745.2593252210472</v>
       </c>
       <c r="Y36" t="n">
-        <v>585.8573655848761</v>
+        <v>585.8573655848772</v>
       </c>
     </row>
     <row r="37">
@@ -7071,13 +7071,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>921.7787690983316</v>
+        <v>731.3245703057015</v>
       </c>
       <c r="C37" t="n">
-        <v>750.6853966600481</v>
+        <v>560.231197867418</v>
       </c>
       <c r="D37" t="n">
-        <v>591.1907519829581</v>
+        <v>560.231197867418</v>
       </c>
       <c r="E37" t="n">
         <v>430.2799368512775</v>
@@ -7092,55 +7092,55 @@
         <v>122.991576717685</v>
       </c>
       <c r="I37" t="n">
-        <v>35.74099050576837</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="J37" t="n">
-        <v>51.86344281542367</v>
+        <v>51.86344281542368</v>
       </c>
       <c r="K37" t="n">
         <v>110.3049721335449</v>
       </c>
       <c r="L37" t="n">
-        <v>325.209197607252</v>
+        <v>451.4831578130901</v>
       </c>
       <c r="M37" t="n">
-        <v>763.1157330083308</v>
+        <v>889.389693214169</v>
       </c>
       <c r="N37" t="n">
-        <v>1189.06260844576</v>
+        <v>1315.336568651599</v>
       </c>
       <c r="O37" t="n">
-        <v>1582.654029123054</v>
+        <v>1708.927989328892</v>
       </c>
       <c r="P37" t="n">
-        <v>1642.118498692661</v>
+        <v>1768.392458898499</v>
       </c>
       <c r="Q37" t="n">
-        <v>1787.049525288418</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="R37" t="n">
-        <v>1745.279268752168</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="S37" t="n">
-        <v>1575.748442655586</v>
+        <v>1617.518699191837</v>
       </c>
       <c r="T37" t="n">
-        <v>1575.748442655586</v>
+        <v>1382.103837451298</v>
       </c>
       <c r="U37" t="n">
-        <v>1575.748442655586</v>
+        <v>1382.103837451298</v>
       </c>
       <c r="V37" t="n">
-        <v>1301.862697595108</v>
+        <v>1382.103837451298</v>
       </c>
       <c r="W37" t="n">
-        <v>1022.793033103982</v>
+        <v>1382.103837451298</v>
       </c>
       <c r="X37" t="n">
-        <v>921.7787690983316</v>
+        <v>1143.759975310981</v>
       </c>
       <c r="Y37" t="n">
-        <v>921.7787690983316</v>
+        <v>919.0242766997459</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1787.049525288419</v>
+        <v>497.667879901943</v>
       </c>
       <c r="C38" t="n">
-        <v>1787.049525288419</v>
+        <v>497.667879901943</v>
       </c>
       <c r="D38" t="n">
-        <v>1566.50234517234</v>
+        <v>497.667879901943</v>
       </c>
       <c r="E38" t="n">
-        <v>1152.162129689236</v>
+        <v>497.667879901943</v>
       </c>
       <c r="F38" t="n">
-        <v>731.1317176429238</v>
+        <v>76.63746785563052</v>
       </c>
       <c r="G38" t="n">
-        <v>324.5603159413865</v>
+        <v>76.63746785563052</v>
       </c>
       <c r="H38" t="n">
         <v>35.74099050576839</v>
@@ -7174,25 +7174,25 @@
         <v>35.74099050576839</v>
       </c>
       <c r="J38" t="n">
-        <v>142.5703854689898</v>
+        <v>142.5703854689904</v>
       </c>
       <c r="K38" t="n">
-        <v>323.2290557446588</v>
+        <v>323.2290557446594</v>
       </c>
       <c r="L38" t="n">
-        <v>562.2973247064784</v>
+        <v>562.297324706479</v>
       </c>
       <c r="M38" t="n">
-        <v>841.1329596152973</v>
+        <v>841.1329596152979</v>
       </c>
       <c r="N38" t="n">
-        <v>1126.349039004049</v>
+        <v>1126.34903900405</v>
       </c>
       <c r="O38" t="n">
-        <v>1390.269714189818</v>
+        <v>1390.269714189819</v>
       </c>
       <c r="P38" t="n">
-        <v>1601.546999092373</v>
+        <v>1601.546999092374</v>
       </c>
       <c r="Q38" t="n">
         <v>1740.697478824118</v>
@@ -7201,25 +7201,25 @@
         <v>1787.049525288419</v>
       </c>
       <c r="S38" t="n">
-        <v>1787.049525288419</v>
+        <v>1700.918407900826</v>
       </c>
       <c r="T38" t="n">
-        <v>1787.049525288419</v>
+        <v>1488.153676578333</v>
       </c>
       <c r="U38" t="n">
-        <v>1787.049525288419</v>
+        <v>1231.265735430294</v>
       </c>
       <c r="V38" t="n">
-        <v>1787.049525288419</v>
+        <v>881.4281807667744</v>
       </c>
       <c r="W38" t="n">
-        <v>1787.049525288419</v>
+        <v>497.667879901943</v>
       </c>
       <c r="X38" t="n">
-        <v>1787.049525288419</v>
+        <v>497.667879901943</v>
       </c>
       <c r="Y38" t="n">
-        <v>1787.049525288419</v>
+        <v>497.667879901943</v>
       </c>
     </row>
     <row r="39">
@@ -7229,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>672.411703293903</v>
+        <v>621.9219942215105</v>
       </c>
       <c r="C39" t="n">
-        <v>538.4166320428487</v>
+        <v>487.9269229704562</v>
       </c>
       <c r="D39" t="n">
-        <v>430.6314409326409</v>
+        <v>371.0297651898487</v>
       </c>
       <c r="E39" t="n">
-        <v>310.1386249249689</v>
+        <v>250.5369491821766</v>
       </c>
       <c r="F39" t="n">
-        <v>201.1787451074734</v>
+        <v>141.5770693646812</v>
       </c>
       <c r="G39" t="n">
-        <v>95.3426662485606</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="H39" t="n">
         <v>35.74099050576839</v>
@@ -7253,52 +7253,52 @@
         <v>54.34778796170229</v>
       </c>
       <c r="J39" t="n">
-        <v>110.3534157295929</v>
+        <v>354.0218197042262</v>
       </c>
       <c r="K39" t="n">
-        <v>237.7286580436576</v>
+        <v>481.3970620182909</v>
       </c>
       <c r="L39" t="n">
-        <v>487.6270792619887</v>
+        <v>671.4294235586131</v>
       </c>
       <c r="M39" t="n">
-        <v>717.2254135418792</v>
+        <v>901.0277578385036</v>
       </c>
       <c r="N39" t="n">
-        <v>958.7360337298702</v>
+        <v>1142.538378026494</v>
       </c>
       <c r="O39" t="n">
-        <v>1170.672051216937</v>
+        <v>1354.474395513562</v>
       </c>
       <c r="P39" t="n">
-        <v>1332.939498031135</v>
+        <v>1516.74184232776</v>
       </c>
       <c r="Q39" t="n">
-        <v>1775.234255540019</v>
+        <v>1687.264539063038</v>
       </c>
       <c r="R39" t="n">
         <v>1787.049525288419</v>
       </c>
       <c r="S39" t="n">
-        <v>1787.049525288419</v>
+        <v>1700.495187579394</v>
       </c>
       <c r="T39" t="n">
-        <v>1632.359227645523</v>
+        <v>1545.84656934761</v>
       </c>
       <c r="U39" t="n">
-        <v>1435.084340061818</v>
+        <v>1348.571681763905</v>
       </c>
       <c r="V39" t="n">
-        <v>1221.372813054851</v>
+        <v>1134.860154756938</v>
       </c>
       <c r="W39" t="n">
-        <v>1008.13964479118</v>
+        <v>921.6269864932672</v>
       </c>
       <c r="X39" t="n">
-        <v>831.813662930073</v>
+        <v>921.6269864932672</v>
       </c>
       <c r="Y39" t="n">
-        <v>672.411703293903</v>
+        <v>762.2250268570972</v>
       </c>
     </row>
     <row r="40">
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>83.32349259574841</v>
+        <v>503.9401657710414</v>
       </c>
       <c r="C40" t="n">
-        <v>83.32349259574841</v>
+        <v>503.9401657710414</v>
       </c>
       <c r="D40" t="n">
-        <v>83.32349259574841</v>
+        <v>503.9401657710414</v>
       </c>
       <c r="E40" t="n">
-        <v>83.32349259574841</v>
+        <v>343.0293506393609</v>
       </c>
       <c r="F40" t="n">
-        <v>35.74099050576839</v>
+        <v>343.0293506393609</v>
       </c>
       <c r="G40" t="n">
-        <v>35.74099050576839</v>
+        <v>176.7464627587414</v>
       </c>
       <c r="H40" t="n">
         <v>35.74099050576839</v>
@@ -7332,22 +7332,22 @@
         <v>35.74099050576839</v>
       </c>
       <c r="J40" t="n">
-        <v>116.8648064467601</v>
+        <v>51.86344281542368</v>
       </c>
       <c r="K40" t="n">
-        <v>175.3063357648813</v>
+        <v>110.3049721335449</v>
       </c>
       <c r="L40" t="n">
-        <v>576.1823318821755</v>
+        <v>451.4831578130901</v>
       </c>
       <c r="M40" t="n">
-        <v>1014.088867283254</v>
+        <v>889.389693214169</v>
       </c>
       <c r="N40" t="n">
-        <v>1440.035742720684</v>
+        <v>1315.336568651599</v>
       </c>
       <c r="O40" t="n">
-        <v>1518.552403979237</v>
+        <v>1708.927989328892</v>
       </c>
       <c r="P40" t="n">
         <v>1768.392458898499</v>
@@ -7371,13 +7371,13 @@
         <v>825.472717838426</v>
       </c>
       <c r="W40" t="n">
-        <v>546.4030533473003</v>
+        <v>691.6398721650858</v>
       </c>
       <c r="X40" t="n">
-        <v>308.0591912069837</v>
+        <v>691.6398721650858</v>
       </c>
       <c r="Y40" t="n">
-        <v>83.32349259574841</v>
+        <v>691.6398721650858</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1274.558476885605</v>
+        <v>1077.932496913844</v>
       </c>
       <c r="C41" t="n">
-        <v>864.4338861988751</v>
+        <v>1077.932496913844</v>
       </c>
       <c r="D41" t="n">
-        <v>459.9699562919356</v>
+        <v>1077.932496913844</v>
       </c>
       <c r="E41" t="n">
-        <v>459.9699562919356</v>
+        <v>663.5922814307403</v>
       </c>
       <c r="F41" t="n">
-        <v>38.93954424562315</v>
+        <v>242.5618693844278</v>
       </c>
       <c r="G41" t="n">
         <v>38.93954424562315</v>
@@ -7438,25 +7438,25 @@
         <v>1787.049525288419</v>
       </c>
       <c r="S41" t="n">
-        <v>1787.049525288419</v>
+        <v>1700.918407900826</v>
       </c>
       <c r="T41" t="n">
-        <v>1787.049525288419</v>
+        <v>1488.153676578333</v>
       </c>
       <c r="U41" t="n">
-        <v>1787.049525288419</v>
+        <v>1488.153676578333</v>
       </c>
       <c r="V41" t="n">
-        <v>1787.049525288419</v>
+        <v>1488.153676578333</v>
       </c>
       <c r="W41" t="n">
-        <v>1787.049525288419</v>
+        <v>1488.153676578333</v>
       </c>
       <c r="X41" t="n">
-        <v>1787.049525288419</v>
+        <v>1488.153676578333</v>
       </c>
       <c r="Y41" t="n">
-        <v>1684.779656550095</v>
+        <v>1488.153676578333</v>
       </c>
     </row>
     <row r="42">
@@ -7466,16 +7466,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>658.7875012129617</v>
+        <v>681.5236699643028</v>
       </c>
       <c r="C42" t="n">
-        <v>524.7924299619074</v>
+        <v>547.5285987132485</v>
       </c>
       <c r="D42" t="n">
-        <v>407.8952721812998</v>
+        <v>430.6314409326409</v>
       </c>
       <c r="E42" t="n">
-        <v>287.4024561736278</v>
+        <v>310.1386249249689</v>
       </c>
       <c r="F42" t="n">
         <v>201.1787451074734</v>
@@ -7487,31 +7487,31 @@
         <v>35.74099050576839</v>
       </c>
       <c r="I42" t="n">
-        <v>35.74099050576839</v>
+        <v>54.34778796170229</v>
       </c>
       <c r="J42" t="n">
-        <v>91.74661827365902</v>
+        <v>110.3534157295929</v>
       </c>
       <c r="K42" t="n">
-        <v>534.0413757825428</v>
+        <v>237.7286580436576</v>
       </c>
       <c r="L42" t="n">
-        <v>724.0737373228651</v>
+        <v>427.7610195839799</v>
       </c>
       <c r="M42" t="n">
-        <v>953.6720716027556</v>
+        <v>657.3593538638704</v>
       </c>
       <c r="N42" t="n">
-        <v>1195.182691790747</v>
+        <v>898.8699740518614</v>
       </c>
       <c r="O42" t="n">
-        <v>1407.118709277814</v>
+        <v>1110.805991538929</v>
       </c>
       <c r="P42" t="n">
-        <v>1686.980039158656</v>
+        <v>1273.073438353127</v>
       </c>
       <c r="Q42" t="n">
-        <v>1775.234255540019</v>
+        <v>1687.264539063038</v>
       </c>
       <c r="R42" t="n">
         <v>1787.049525288419</v>
@@ -7529,13 +7529,13 @@
         <v>1134.818475345826</v>
       </c>
       <c r="W42" t="n">
-        <v>1134.818475345826</v>
+        <v>921.5853070821544</v>
       </c>
       <c r="X42" t="n">
-        <v>958.4924934847184</v>
+        <v>745.2593252210472</v>
       </c>
       <c r="Y42" t="n">
-        <v>799.0905338485484</v>
+        <v>681.5236699643028</v>
       </c>
     </row>
     <row r="43">
@@ -7545,49 +7545,49 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>698.6591918457606</v>
+        <v>435.8197607673162</v>
       </c>
       <c r="C43" t="n">
-        <v>527.5658194074771</v>
+        <v>435.8197607673162</v>
       </c>
       <c r="D43" t="n">
-        <v>527.5658194074771</v>
+        <v>435.8197607673162</v>
       </c>
       <c r="E43" t="n">
-        <v>366.6550042757966</v>
+        <v>274.9089456356356</v>
       </c>
       <c r="F43" t="n">
-        <v>202.0238783863878</v>
+        <v>274.9089456356356</v>
       </c>
       <c r="G43" t="n">
-        <v>35.74099050576839</v>
+        <v>263.9970489706581</v>
       </c>
       <c r="H43" t="n">
-        <v>35.74099050576839</v>
+        <v>122.991576717685</v>
       </c>
       <c r="I43" t="n">
         <v>35.74099050576839</v>
       </c>
       <c r="J43" t="n">
-        <v>116.8648064467601</v>
+        <v>51.86344281542368</v>
       </c>
       <c r="K43" t="n">
-        <v>269.2995510042442</v>
+        <v>110.3049721335449</v>
       </c>
       <c r="L43" t="n">
-        <v>670.1755471215383</v>
+        <v>197.201857015816</v>
       </c>
       <c r="M43" t="n">
-        <v>763.1157330083317</v>
+        <v>628.4922097410511</v>
       </c>
       <c r="N43" t="n">
-        <v>1189.062608445761</v>
+        <v>1054.439085178481</v>
       </c>
       <c r="O43" t="n">
-        <v>1582.654029123055</v>
+        <v>1448.030505855774</v>
       </c>
       <c r="P43" t="n">
-        <v>1642.118498692662</v>
+        <v>1768.392458898499</v>
       </c>
       <c r="Q43" t="n">
         <v>1787.049525288419</v>
@@ -7596,25 +7596,25 @@
         <v>1745.279268752169</v>
       </c>
       <c r="S43" t="n">
-        <v>1575.748442655587</v>
+        <v>1745.279268752169</v>
       </c>
       <c r="T43" t="n">
-        <v>1575.748442655587</v>
+        <v>1509.86440701163</v>
       </c>
       <c r="U43" t="n">
-        <v>1293.003068103193</v>
+        <v>1227.119032459236</v>
       </c>
       <c r="V43" t="n">
-        <v>1293.003068103193</v>
+        <v>953.2332873987584</v>
       </c>
       <c r="W43" t="n">
-        <v>1124.702760380122</v>
+        <v>674.1636229076328</v>
       </c>
       <c r="X43" t="n">
-        <v>886.3588982398049</v>
+        <v>435.8197607673162</v>
       </c>
       <c r="Y43" t="n">
-        <v>886.3588982398049</v>
+        <v>435.8197607673162</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>830.6223375992454</v>
+        <v>745.590727987699</v>
       </c>
       <c r="C44" t="n">
-        <v>456.7714025520808</v>
+        <v>745.590727987699</v>
       </c>
       <c r="D44" t="n">
-        <v>456.7714025520808</v>
+        <v>745.590727987699</v>
       </c>
       <c r="E44" t="n">
-        <v>456.7714025520808</v>
+        <v>745.590727987699</v>
       </c>
       <c r="F44" t="n">
-        <v>35.74099050576837</v>
+        <v>324.5603159413865</v>
       </c>
       <c r="G44" t="n">
-        <v>35.74099050576837</v>
+        <v>324.5603159413865</v>
       </c>
       <c r="H44" t="n">
         <v>35.74099050576837</v>
@@ -7678,22 +7678,22 @@
         <v>1700.918407900826</v>
       </c>
       <c r="T44" t="n">
-        <v>1488.153676578332</v>
+        <v>1700.918407900826</v>
       </c>
       <c r="U44" t="n">
-        <v>1231.265735430293</v>
+        <v>1444.030466752786</v>
       </c>
       <c r="V44" t="n">
-        <v>1231.265735430293</v>
+        <v>1094.192912089267</v>
       </c>
       <c r="W44" t="n">
-        <v>1231.265735430293</v>
+        <v>1094.192912089267</v>
       </c>
       <c r="X44" t="n">
-        <v>830.6223375992454</v>
+        <v>1094.192912089267</v>
       </c>
       <c r="Y44" t="n">
-        <v>830.6223375992454</v>
+        <v>1094.192912089267</v>
       </c>
     </row>
     <row r="45">
@@ -7724,16 +7724,16 @@
         <v>35.74099050576837</v>
       </c>
       <c r="I45" t="n">
-        <v>35.74099050576837</v>
+        <v>54.34778796170227</v>
       </c>
       <c r="J45" t="n">
-        <v>335.4150222482922</v>
+        <v>354.0218197042262</v>
       </c>
       <c r="K45" t="n">
-        <v>563.6655423722052</v>
+        <v>481.3970620182909</v>
       </c>
       <c r="L45" t="n">
-        <v>753.6979039125275</v>
+        <v>671.4294235586131</v>
       </c>
       <c r="M45" t="n">
         <v>983.2962381924181</v>
@@ -7754,19 +7754,19 @@
         <v>1787.049525288419</v>
       </c>
       <c r="S45" t="n">
-        <v>1700.495187579393</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="T45" t="n">
-        <v>1700.495187579393</v>
+        <v>1632.359227645523</v>
       </c>
       <c r="U45" t="n">
-        <v>1503.220299995687</v>
+        <v>1584.499339367804</v>
       </c>
       <c r="V45" t="n">
-        <v>1289.508772988721</v>
+        <v>1370.787812360838</v>
       </c>
       <c r="W45" t="n">
-        <v>1076.27560472505</v>
+        <v>1157.554644097167</v>
       </c>
       <c r="X45" t="n">
         <v>981.2286622360594</v>
@@ -7782,37 +7782,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>614.8164056193937</v>
+        <v>373.1172508246713</v>
       </c>
       <c r="C46" t="n">
-        <v>614.8164056193937</v>
+        <v>202.0238783863878</v>
       </c>
       <c r="D46" t="n">
-        <v>614.8164056193937</v>
+        <v>202.0238783863878</v>
       </c>
       <c r="E46" t="n">
-        <v>453.9055904877132</v>
+        <v>202.0238783863878</v>
       </c>
       <c r="F46" t="n">
-        <v>289.2744645983045</v>
+        <v>202.0238783863878</v>
       </c>
       <c r="G46" t="n">
-        <v>122.991576717685</v>
+        <v>35.74099050576837</v>
       </c>
       <c r="H46" t="n">
-        <v>122.991576717685</v>
+        <v>35.74099050576837</v>
       </c>
       <c r="I46" t="n">
         <v>35.74099050576837</v>
       </c>
       <c r="J46" t="n">
-        <v>99.86455002698273</v>
+        <v>51.86344281542367</v>
       </c>
       <c r="K46" t="n">
-        <v>364.5862729308182</v>
+        <v>110.3049721335449</v>
       </c>
       <c r="L46" t="n">
-        <v>451.4831578130892</v>
+        <v>511.1809682508391</v>
       </c>
       <c r="M46" t="n">
         <v>889.3896932141681</v>
@@ -7833,25 +7833,25 @@
         <v>1745.279268752169</v>
       </c>
       <c r="S46" t="n">
-        <v>1575.748442655586</v>
+        <v>1745.279268752169</v>
       </c>
       <c r="T46" t="n">
-        <v>1575.748442655586</v>
+        <v>1634.86160346303</v>
       </c>
       <c r="U46" t="n">
-        <v>1293.003068103193</v>
+        <v>1352.116228910636</v>
       </c>
       <c r="V46" t="n">
-        <v>1293.003068103193</v>
+        <v>1078.230483850158</v>
       </c>
       <c r="W46" t="n">
-        <v>1013.933403612067</v>
+        <v>799.1608193590323</v>
       </c>
       <c r="X46" t="n">
-        <v>839.552104230629</v>
+        <v>560.8169572187156</v>
       </c>
       <c r="Y46" t="n">
-        <v>614.8164056193937</v>
+        <v>560.8169572187156</v>
       </c>
     </row>
   </sheetData>
@@ -8765,13 +8765,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0.9707135290540307</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
         <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>83.09947510496423</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>190.752519481647</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,7 +8847,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K13" t="n">
         <v>208.3638319047618</v>
@@ -8856,13 +8856,13 @@
         <v>317.1506174091142</v>
       </c>
       <c r="M13" t="n">
-        <v>6.961273970311169</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>335.3881832803894</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>276.6915141887438</v>
       </c>
       <c r="P13" t="n">
         <v>263.5328115890082</v>
@@ -9002,16 +9002,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0.9707135290540378</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>254.8105009783449</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>182.0717194877797</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>83.09947510496454</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9090,22 +9090,22 @@
         <v>208.3638319047618</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M16" t="n">
-        <v>348.4508580952379</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>54.68339550978858</v>
+        <v>276.6915141887437</v>
       </c>
       <c r="O16" t="n">
-        <v>318.2573327462026</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>263.5328115890082</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9239,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0.9707135290540378</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
         <v>246.129700984478</v>
@@ -9251,7 +9251,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>83.09947510496454</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>101.8942200099488</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>88.85829947169823</v>
@@ -9327,22 +9327,22 @@
         <v>208.3638319047618</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M19" t="n">
-        <v>348.4508580952379</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>318.2162070987971</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>318.2573327462026</v>
+        <v>276.6915141887441</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9476,22 +9476,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>19.76545843403778</v>
+        <v>0.9707135290540378</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>79.26551225650758</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>254.810500978345</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>74.41867511109785</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9500,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>357.6167082096172</v>
       </c>
       <c r="R21" t="n">
-        <v>88.85829947169823</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9561,13 +9561,13 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L22" t="n">
-        <v>276.1099022293993</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>14.12826450453079</v>
       </c>
       <c r="N22" t="n">
         <v>335.3881832803894</v>
@@ -9576,7 +9576,7 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P22" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -9643,7 +9643,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>110.0744140796684</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>110.0744140796682</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>128.2784515920617</v>
@@ -9737,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>340.2470856816784</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
-        <v>88.85829947169823</v>
+        <v>19.03451949299913</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9795,10 +9795,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>65.65794306195595</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>167.1186251429792</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>317.1506174091142</v>
@@ -9810,10 +9810,10 @@
         <v>335.3881832803894</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P25" t="n">
-        <v>263.5328115890082</v>
+        <v>178.0520470477408</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -9956,7 +9956,7 @@
         <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>19.03451949299904</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>19.03451949299913</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10032,13 +10032,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>23.3060209630852</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>208.3638319047618</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M28" t="n">
         <v>348.4508580952379</v>
@@ -10050,7 +10050,7 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P28" t="n">
-        <v>263.5328115890082</v>
+        <v>178.0520470477408</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>110.0744140796684</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10132,10 +10132,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>238.3528656717301</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10193,7 +10193,7 @@
         <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>340.2470856816783</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10211,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
-        <v>88.85829947169823</v>
+        <v>19.03451949299913</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10269,10 +10269,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>65.65794306195595</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>208.3638319047618</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>317.1506174091142</v>
@@ -10281,13 +10281,13 @@
         <v>348.4508580952379</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O31" t="n">
         <v>318.2573327462026</v>
       </c>
       <c r="P31" t="n">
-        <v>111.8690006080419</v>
+        <v>50.50259229436998</v>
       </c>
       <c r="Q31" t="n">
         <v>127.5494547533709</v>
@@ -10448,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>340.2470856816782</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
-        <v>88.85829947169823</v>
+        <v>19.03451949299913</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10506,7 +10506,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K34" t="n">
         <v>208.3638319047618</v>
@@ -10515,19 +10515,19 @@
         <v>317.1506174091142</v>
       </c>
       <c r="M34" t="n">
-        <v>348.4508580952379</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>335.3881832803894</v>
+        <v>196.7870471142712</v>
       </c>
       <c r="O34" t="n">
-        <v>24.41273630017373</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P34" t="n">
         <v>263.5328115890082</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10661,13 +10661,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0.9707135290540378</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
         <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>101.8942200099473</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10685,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>83.09947510496499</v>
       </c>
       <c r="R36" t="n">
         <v>88.85829947169823</v>
@@ -10749,7 +10749,7 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>129.3003440317535</v>
+        <v>256.8497987851254</v>
       </c>
       <c r="M37" t="n">
         <v>348.4508580952379</v>
@@ -10764,7 +10764,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10901,13 +10901,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>60.47076735152405</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10922,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>357.6167082096173</v>
+        <v>83.09947510496499</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10980,13 +10980,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>65.65794306195595</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>317.1506174091142</v>
+        <v>256.8497987851254</v>
       </c>
       <c r="M40" t="n">
         <v>348.4508580952379</v>
@@ -10995,10 +10995,10 @@
         <v>335.3881832803894</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P40" t="n">
-        <v>192.2985710602576</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -11135,13 +11135,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0.9707135290540378</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>318.1005203988071</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>118.7817000673178</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>329.2291760894428</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11217,16 +11217,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>65.65794306195595</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>94.94264165592207</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>317.1506174091142</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>341.7678452913552</v>
       </c>
       <c r="N43" t="n">
         <v>335.3881832803894</v>
@@ -11235,10 +11235,10 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q43" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11372,19 +11372,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0.9707135290540378</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
         <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>101.8942200099478</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>83.09947510496409</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11454,16 +11454,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>48.48596688036269</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>208.3638319047618</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M46" t="n">
-        <v>348.4508580952379</v>
+        <v>288.1500394712481</v>
       </c>
       <c r="N46" t="n">
         <v>335.3881832803894</v>
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>400.41929060787</v>
@@ -23269,7 +23269,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
-        <v>396.7968137553171</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>3.166568202456219</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,19 +23308,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>85.26980621371686</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>210.6370840092685</v>
       </c>
       <c r="U11" t="n">
         <v>254.319061736559</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>146.7063809348501</v>
       </c>
       <c r="X11" t="n">
         <v>396.636963852737</v>
@@ -23348,7 +23348,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -23399,13 +23399,13 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>174.6039846594974</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>66.73370364017782</v>
       </c>
     </row>
     <row r="13">
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>119.0258141587232</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
         <v>164.6200590018132</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>139.5954175304433</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>86.37808034979749</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>41.35255397088748</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,19 +23472,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9179208068699</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>72.13804745601138</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23494,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>406.0233447798626</v>
+        <v>229.8897900719152</v>
       </c>
       <c r="D14" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>410.1968133282722</v>
@@ -23509,13 +23509,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>107.6871459661514</v>
+        <v>402.5056876845219</v>
       </c>
       <c r="H14" t="n">
-        <v>285.9311321812619</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>3.166568202456219</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,22 +23548,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>210.6370840092685</v>
       </c>
       <c r="U14" t="n">
         <v>254.319061736559</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="15">
@@ -23579,7 +23579,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>22.03523190796599</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -23588,10 +23588,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>88.91519032756271</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>59.00565898536429</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -23624,7 +23624,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>85.6887943319354</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -23633,7 +23633,7 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -23655,16 +23655,16 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>86.37808034979749</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23712,16 +23712,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>267.9551027884178</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>103.7567265686909</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>406.0233447798626</v>
+        <v>117.5202388741433</v>
       </c>
       <c r="D17" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
-        <v>33.56554026096518</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
         <v>402.5056876845219</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>285.9311321812619</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>3.166568202456219</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,16 +23782,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>85.26980621371686</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>210.6370840092685</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>254.319061736559</v>
       </c>
       <c r="V17" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>379.9226978561831</v>
@@ -23813,10 +23813,10 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>117.8814574420607</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -23870,7 +23870,7 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -23879,7 +23879,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>22.03523190796557</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23901,13 +23901,13 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>11.47856133945152</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>139.5954175304433</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23940,22 +23940,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>167.8355178356165</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9179208068699</v>
+        <v>277.5428157136989</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23974,19 +23974,19 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>402.5056876845219</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>285.9311321812619</v>
       </c>
       <c r="I20" t="n">
         <v>3.166568202456219</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>85.26980621371686</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>210.6370840092685</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>40.08438763157883</v>
       </c>
       <c r="V20" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>393.9208525967127</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="21">
@@ -24047,7 +24047,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>20.96164455521787</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -24056,10 +24056,10 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F21" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>104.7777180703237</v>
@@ -24098,7 +24098,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>9.544037726943259</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -24126,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>149.5808399852816</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>162.9848146305146</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>86.37808034979749</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>41.35255397088748</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,19 +24183,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>184.8643559566974</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -24211,16 +24211,16 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
-        <v>410.1968133282722</v>
+        <v>316.8681814701329</v>
       </c>
       <c r="F23" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>18.01614847039576</v>
+        <v>402.5056876845219</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>85.26980621371686</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24268,13 +24268,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>164.6200590018132</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>86.37808034979749</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,16 +24417,16 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>233.0607131231338</v>
       </c>
       <c r="U25" t="n">
-        <v>69.6140895012889</v>
+        <v>279.9179208068699</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>197.3635562479829</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24451,13 +24451,13 @@
         <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>323.8904153218722</v>
+        <v>255.6177299843483</v>
       </c>
       <c r="H26" t="n">
         <v>285.9311321812619</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>85.26980621371686</v>
       </c>
       <c r="T26" t="n">
-        <v>210.6370840092685</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>254.319061736559</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>86.37808034979749</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.35255397088748</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>78.40395512429465</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>233.0607131231338</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9179208068699</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>118.4373760501927</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24682,16 +24682,16 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
-        <v>197.8881498199568</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24730,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>85.26980621371686</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>254.319061736559</v>
       </c>
       <c r="V29" t="n">
         <v>346.3391791168841</v>
@@ -24745,10 +24745,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
-        <v>396.636963852737</v>
+        <v>262.2410245819253</v>
       </c>
       <c r="Y29" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24840,13 +24840,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>139.5954175304433</v>
       </c>
       <c r="I31" t="n">
         <v>86.37808034979749</v>
@@ -24885,22 +24885,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>41.35255397088748</v>
       </c>
       <c r="S31" t="n">
-        <v>167.8355178356165</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>233.0607131231338</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9179208068699</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>219.4289259087832</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>157.5502473556747</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24916,16 +24916,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>58.9039244231306</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -24934,7 +24934,7 @@
         <v>402.5056876845219</v>
       </c>
       <c r="H32" t="n">
-        <v>285.9311321812619</v>
+        <v>244.2057822992637</v>
       </c>
       <c r="I32" t="n">
         <v>3.166568202456219</v>
@@ -24967,10 +24967,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>85.26980621371686</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>210.6370840092685</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>254.319061736559</v>
@@ -24982,10 +24982,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="33">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>111.0790015888621</v>
       </c>
       <c r="C34" t="n">
         <v>169.3824387139007</v>
@@ -25086,16 +25086,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>149.5945457677002</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>164.6200590018132</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>139.5954175304433</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>86.37808034979749</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25156,10 +25156,10 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
-        <v>277.9088053580128</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>410.1968133282722</v>
@@ -25207,19 +25207,19 @@
         <v>85.26980621371686</v>
       </c>
       <c r="T35" t="n">
-        <v>210.6370840092685</v>
+        <v>32.22475985156478</v>
       </c>
       <c r="U35" t="n">
         <v>254.319061736559</v>
       </c>
       <c r="V35" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
         <v>396.9273063213908</v>
@@ -25232,13 +25232,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>114.3217557972679</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>55.31609681190243</v>
       </c>
       <c r="E36" t="n">
         <v>119.2878878475953</v>
@@ -25250,7 +25250,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>59.00565898536429</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -25311,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>30.64995857438461</v>
       </c>
       <c r="F37" t="n">
         <v>162.9848146305146</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>41.35255397088748</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>233.0607131231338</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>279.9179208068699</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>135.9563021533194</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25396,19 +25396,19 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
-        <v>182.0775822929511</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>402.5056876845219</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>245.4436196048984</v>
       </c>
       <c r="I38" t="n">
         <v>3.166568202456219</v>
@@ -25441,19 +25441,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>85.26980621371686</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>210.6370840092685</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>254.319061736559</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>396.636963852737</v>
@@ -25469,13 +25469,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>9.020847003695721</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -25487,7 +25487,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>59.00565898536429</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -25520,10 +25520,10 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>85.6887943319354</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>0.04126261700159262</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -25535,7 +25535,7 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>169.3824387139007</v>
@@ -25557,16 +25557,16 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>115.8781375614344</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>164.6200590018132</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>139.5954175304433</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>86.37808034979749</v>
@@ -25611,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>143.7844506296076</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -25630,19 +25630,19 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>402.5056876845219</v>
+        <v>200.9195857971053</v>
       </c>
       <c r="H41" t="n">
         <v>285.9311321812619</v>
@@ -25678,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>85.26980621371686</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>210.6370840092685</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>254.319061736559</v>
@@ -25696,7 +25696,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>295.6801362704493</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="42">
@@ -25706,7 +25706,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -25718,7 +25718,7 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>22.50880706382766</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -25769,13 +25769,13 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>94.70964133563132</v>
       </c>
     </row>
     <row r="43">
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
         <v>157.8996982303191</v>
@@ -25797,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>153.8172813034854</v>
       </c>
       <c r="H43" t="n">
-        <v>139.5954175304433</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>86.37808034979749</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,19 +25836,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>167.8355178356165</v>
       </c>
       <c r="T43" t="n">
-        <v>233.0607131231338</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>109.6616632003734</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.1189678678446</v>
+        <v>61.00280560729237</v>
       </c>
       <c r="C44" t="n">
-        <v>35.91091908316963</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
         <v>400.41929060787</v>
@@ -25882,7 +25882,7 @@
         <v>402.5056876845219</v>
       </c>
       <c r="H44" t="n">
-        <v>285.9311321812619</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>3.166568202456219</v>
@@ -25918,19 +25918,19 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>210.6370840092685</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
         <v>396.9273063213908</v>
@@ -25994,13 +25994,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>85.6887943319354</v>
       </c>
       <c r="T45" t="n">
-        <v>153.1433946664671</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>147.9208493129274</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -26009,7 +26009,7 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>80.46624897839591</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -26022,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>139.5954175304433</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>86.37808034979749</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,25 +26073,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>167.8355178356165</v>
       </c>
       <c r="T46" t="n">
-        <v>233.0607131231338</v>
+        <v>123.7472244868862</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>63.32293713128985</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>379697.9634172802</v>
+        <v>379697.9634172801</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>379697.9634172801</v>
+        <v>379697.96341728</v>
       </c>
     </row>
     <row r="7">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>379697.9634172799</v>
+        <v>379697.9634172802</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>379697.9634172802</v>
+        <v>379697.9634172801</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>379697.9634172801</v>
+        <v>379697.96341728</v>
       </c>
     </row>
   </sheetData>
@@ -26328,25 +26328,25 @@
         <v>285332.4276942082</v>
       </c>
       <c r="G2" t="n">
-        <v>285332.4276942082</v>
+        <v>285332.4276942081</v>
       </c>
       <c r="H2" t="n">
-        <v>285332.4276942083</v>
+        <v>285332.4276942081</v>
       </c>
       <c r="I2" t="n">
-        <v>311765.3588726244</v>
+        <v>311765.3588726242</v>
       </c>
       <c r="J2" t="n">
-        <v>311765.3588726243</v>
+        <v>311765.3588726242</v>
       </c>
       <c r="K2" t="n">
-        <v>311765.3588726243</v>
+        <v>311765.3588726242</v>
       </c>
       <c r="L2" t="n">
         <v>311765.3588726245</v>
       </c>
       <c r="M2" t="n">
-        <v>285332.4276942081</v>
+        <v>285332.4276942082</v>
       </c>
       <c r="N2" t="n">
         <v>285332.4276942082</v>
@@ -26355,7 +26355,7 @@
         <v>285332.4276942082</v>
       </c>
       <c r="P2" t="n">
-        <v>285332.4276942081</v>
+        <v>285332.427694208</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>560128.3559630443</v>
+        <v>560128.3559630441</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16007.44950723702</v>
+        <v>16007.44950723704</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>96333.82383685868</v>
+        <v>96333.82383685881</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,16 +26426,16 @@
         <v>355722.5312813406</v>
       </c>
       <c r="E4" t="n">
-        <v>21118.77151012024</v>
+        <v>21118.77151012021</v>
       </c>
       <c r="F4" t="n">
         <v>21118.77151012022</v>
       </c>
       <c r="G4" t="n">
-        <v>21118.77151012023</v>
+        <v>21118.77151012022</v>
       </c>
       <c r="H4" t="n">
-        <v>21118.77151012023</v>
+        <v>21118.77151012022</v>
       </c>
       <c r="I4" t="n">
         <v>35960.76610263318</v>
@@ -26450,7 +26450,7 @@
         <v>35960.76610263318</v>
       </c>
       <c r="M4" t="n">
-        <v>21118.77151012019</v>
+        <v>21118.77151012023</v>
       </c>
       <c r="N4" t="n">
         <v>21118.77151012023</v>
@@ -26478,16 +26478,16 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>38742.42450886576</v>
+        <v>38742.42450886574</v>
       </c>
       <c r="F5" t="n">
         <v>38742.42450886574</v>
       </c>
       <c r="G5" t="n">
-        <v>38742.42450886575</v>
+        <v>38742.42450886574</v>
       </c>
       <c r="H5" t="n">
-        <v>38742.42450886575</v>
+        <v>38742.42450886574</v>
       </c>
       <c r="I5" t="n">
         <v>42402.35708297614</v>
@@ -26502,7 +26502,7 @@
         <v>42402.35708297614</v>
       </c>
       <c r="M5" t="n">
-        <v>38742.42450886573</v>
+        <v>38742.42450886575</v>
       </c>
       <c r="N5" t="n">
         <v>38742.42450886575</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>112857.3845741673</v>
+        <v>112848.5848885378</v>
       </c>
       <c r="C6" t="n">
-        <v>112857.3845741672</v>
+        <v>112848.5848885377</v>
       </c>
       <c r="D6" t="n">
-        <v>112857.3845741672</v>
+        <v>112848.5848885377</v>
       </c>
       <c r="E6" t="n">
-        <v>-334657.1242878219</v>
+        <v>-335365.521032036</v>
       </c>
       <c r="F6" t="n">
-        <v>225471.2316752223</v>
+        <v>224762.834931008</v>
       </c>
       <c r="G6" t="n">
-        <v>225471.2316752222</v>
+        <v>224762.8349310079</v>
       </c>
       <c r="H6" t="n">
-        <v>225471.2316752223</v>
+        <v>224762.8349310079</v>
       </c>
       <c r="I6" t="n">
-        <v>217394.7861797781</v>
+        <v>216771.656955494</v>
       </c>
       <c r="J6" t="n">
-        <v>233402.235687015</v>
+        <v>232779.106462731</v>
       </c>
       <c r="K6" t="n">
-        <v>233402.235687015</v>
+        <v>232779.106462731</v>
       </c>
       <c r="L6" t="n">
-        <v>233402.2356870151</v>
+        <v>232779.1064627314</v>
       </c>
       <c r="M6" t="n">
-        <v>129137.4078383635</v>
+        <v>128429.0110941492</v>
       </c>
       <c r="N6" t="n">
-        <v>225471.2316752222</v>
+        <v>224762.8349310079</v>
       </c>
       <c r="O6" t="n">
-        <v>225471.2316752222</v>
+        <v>224762.834931008</v>
       </c>
       <c r="P6" t="n">
-        <v>225471.2316752222</v>
+        <v>224762.8349310079</v>
       </c>
     </row>
   </sheetData>
@@ -26746,7 +26746,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>531.1592534165952</v>
+        <v>531.1592534165951</v>
       </c>
       <c r="F3" t="n">
         <v>531.1592534165951</v>
@@ -26798,7 +26798,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>446.7623813221049</v>
+        <v>446.7623813221047</v>
       </c>
       <c r="F4" t="n">
         <v>446.7623813221047</v>
@@ -26816,13 +26816,13 @@
         <v>506.95864076471</v>
       </c>
       <c r="K4" t="n">
-        <v>506.9586407647101</v>
+        <v>506.95864076471</v>
       </c>
       <c r="L4" t="n">
-        <v>506.9586407647101</v>
+        <v>506.95864076471</v>
       </c>
       <c r="M4" t="n">
-        <v>446.7623813221045</v>
+        <v>446.7623813221048</v>
       </c>
       <c r="N4" t="n">
         <v>446.7623813221048</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>531.1592534165952</v>
+        <v>531.1592534165951</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>446.7623813221049</v>
+        <v>446.7623813221047</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>60.19625944260522</v>
+        <v>60.19625944260527</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>386.566121879499</v>
+        <v>386.5661218794995</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>446.7623813221049</v>
+        <v>446.7623813221047</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31752,31 +31752,31 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.135313581574251</v>
+        <v>2.13531358157425</v>
       </c>
       <c r="H11" t="n">
-        <v>21.8682802172973</v>
+        <v>21.86828021729729</v>
       </c>
       <c r="I11" t="n">
-        <v>82.32167685364138</v>
+        <v>82.32167685364135</v>
       </c>
       <c r="J11" t="n">
         <v>181.2320710941377</v>
       </c>
       <c r="K11" t="n">
-        <v>271.6198950021758</v>
+        <v>271.6198950021757</v>
       </c>
       <c r="L11" t="n">
-        <v>336.9684980242788</v>
+        <v>336.9684980242787</v>
       </c>
       <c r="M11" t="n">
-        <v>374.9423809305999</v>
+        <v>374.9423809305998</v>
       </c>
       <c r="N11" t="n">
         <v>381.0093406442477</v>
       </c>
       <c r="O11" t="n">
-        <v>359.7763162174688</v>
+        <v>359.7763162174687</v>
       </c>
       <c r="P11" t="n">
         <v>307.0607621723544</v>
@@ -31788,10 +31788,10 @@
         <v>134.1323917685636</v>
       </c>
       <c r="S11" t="n">
-        <v>48.65845824012328</v>
+        <v>48.65845824012327</v>
       </c>
       <c r="T11" t="n">
-        <v>9.347335203341286</v>
+        <v>9.347335203341284</v>
       </c>
       <c r="U11" t="n">
         <v>0.17082508652594</v>
@@ -31831,13 +31831,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.142493488480979</v>
+        <v>1.142493488480978</v>
       </c>
       <c r="H12" t="n">
         <v>11.03408184927682</v>
       </c>
       <c r="I12" t="n">
-        <v>39.33585037094597</v>
+        <v>39.33585037094596</v>
       </c>
       <c r="J12" t="n">
         <v>107.9405799796875</v>
@@ -31846,16 +31846,16 @@
         <v>184.4876437079131</v>
       </c>
       <c r="L12" t="n">
-        <v>248.066404154609</v>
+        <v>248.0664041546089</v>
       </c>
       <c r="M12" t="n">
         <v>289.4817931120443</v>
       </c>
       <c r="N12" t="n">
-        <v>297.1435147957612</v>
+        <v>297.1435147957611</v>
       </c>
       <c r="O12" t="n">
-        <v>271.8282643404721</v>
+        <v>271.828264340472</v>
       </c>
       <c r="P12" t="n">
         <v>218.166146936337</v>
@@ -31864,16 +31864,16 @@
         <v>145.8382916173263</v>
       </c>
       <c r="R12" t="n">
-        <v>70.93481501288042</v>
+        <v>70.93481501288041</v>
       </c>
       <c r="S12" t="n">
         <v>21.22131545489886</v>
       </c>
       <c r="T12" t="n">
-        <v>4.605050508394819</v>
+        <v>4.605050508394818</v>
       </c>
       <c r="U12" t="n">
-        <v>0.07516404529480124</v>
+        <v>0.07516404529480122</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,16 +31910,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9578281618987782</v>
+        <v>0.957828161898778</v>
       </c>
       <c r="H13" t="n">
-        <v>8.515963112154598</v>
+        <v>8.515963112154596</v>
       </c>
       <c r="I13" t="n">
-        <v>28.80450508691963</v>
+        <v>28.80450508691962</v>
       </c>
       <c r="J13" t="n">
-        <v>67.71845104624362</v>
+        <v>67.7184510462436</v>
       </c>
       <c r="K13" t="n">
         <v>111.2822173551489</v>
@@ -31931,28 +31931,28 @@
         <v>150.1439181420057</v>
       </c>
       <c r="N13" t="n">
-        <v>146.5738313567468</v>
+        <v>146.5738313567467</v>
       </c>
       <c r="O13" t="n">
-        <v>135.3846569200201</v>
+        <v>135.38465692002</v>
       </c>
       <c r="P13" t="n">
         <v>115.8449624172849</v>
       </c>
       <c r="Q13" t="n">
-        <v>80.20504726590588</v>
+        <v>80.20504726590586</v>
       </c>
       <c r="R13" t="n">
-        <v>43.06743717046687</v>
+        <v>43.06743717046686</v>
       </c>
       <c r="S13" t="n">
-        <v>16.69233260327234</v>
+        <v>16.69233260327233</v>
       </c>
       <c r="T13" t="n">
-        <v>4.092538509931142</v>
+        <v>4.092538509931141</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05224517246720614</v>
+        <v>0.05224517246720613</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -35409,13 +35409,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>107.9084797608298</v>
+        <v>107.9084797608297</v>
       </c>
       <c r="K11" t="n">
         <v>182.4835053289586</v>
       </c>
       <c r="L11" t="n">
-        <v>241.483099961434</v>
+        <v>241.4830999614339</v>
       </c>
       <c r="M11" t="n">
         <v>281.6521564735544</v>
@@ -35424,16 +35424,16 @@
         <v>288.0970498876284</v>
       </c>
       <c r="O11" t="n">
-        <v>266.5865405916857</v>
+        <v>266.5865405916856</v>
       </c>
       <c r="P11" t="n">
-        <v>213.4113988914703</v>
+        <v>213.4113988914702</v>
       </c>
       <c r="Q11" t="n">
         <v>140.5560401330744</v>
       </c>
       <c r="R11" t="n">
-        <v>46.82024895384011</v>
+        <v>46.82024895384008</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>18.79474490498374</v>
       </c>
       <c r="J12" t="n">
-        <v>302.7010421641656</v>
+        <v>302.7010421641655</v>
       </c>
       <c r="K12" t="n">
-        <v>128.6618609232977</v>
+        <v>211.7613360282619</v>
       </c>
       <c r="L12" t="n">
         <v>191.9518803437599</v>
       </c>
       <c r="M12" t="n">
-        <v>231.9175093736269</v>
+        <v>231.9175093736268</v>
       </c>
       <c r="N12" t="n">
-        <v>243.9501214020112</v>
+        <v>243.9501214020111</v>
       </c>
       <c r="O12" t="n">
-        <v>214.0767853404721</v>
+        <v>214.076785340472</v>
       </c>
       <c r="P12" t="n">
-        <v>354.6590314151803</v>
+        <v>163.9065119335332</v>
       </c>
       <c r="Q12" t="n">
-        <v>89.1456731124876</v>
+        <v>89.14567311248757</v>
       </c>
       <c r="R12" t="n">
-        <v>11.93461590747501</v>
+        <v>100.7929153791732</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>16.2853053632882</v>
+        <v>81.94324842524412</v>
       </c>
       <c r="K13" t="n">
         <v>267.3956797008439</v>
@@ -35576,19 +35576,19 @@
         <v>404.9252486033274</v>
       </c>
       <c r="M13" t="n">
-        <v>100.8402496135369</v>
+        <v>93.87897564322566</v>
       </c>
       <c r="N13" t="n">
-        <v>430.2493691287167</v>
+        <v>94.86118584832728</v>
       </c>
       <c r="O13" t="n">
-        <v>79.30975884702374</v>
+        <v>356.0012730357676</v>
       </c>
       <c r="P13" t="n">
-        <v>323.5979323663883</v>
+        <v>323.5979323663882</v>
       </c>
       <c r="Q13" t="n">
-        <v>146.3949763593512</v>
+        <v>146.3949763593511</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35722,16 +35722,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>18.79474490498374</v>
       </c>
       <c r="J15" t="n">
-        <v>56.57134117968751</v>
+        <v>302.7010421641655</v>
       </c>
       <c r="K15" t="n">
         <v>128.6618609232977</v>
       </c>
       <c r="L15" t="n">
-        <v>446.7623813221047</v>
+        <v>191.9518803437599</v>
       </c>
       <c r="M15" t="n">
         <v>231.9175093736268</v>
@@ -35743,13 +35743,13 @@
         <v>214.076785340472</v>
       </c>
       <c r="P15" t="n">
-        <v>345.9782314213129</v>
+        <v>163.9065119335332</v>
       </c>
       <c r="Q15" t="n">
-        <v>89.14567311248757</v>
+        <v>172.2451482174521</v>
       </c>
       <c r="R15" t="n">
-        <v>11.934615907475</v>
+        <v>100.7929153791732</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35810,22 +35810,22 @@
         <v>267.3956797008439</v>
       </c>
       <c r="L16" t="n">
-        <v>87.77463119421319</v>
+        <v>404.9252486033274</v>
       </c>
       <c r="M16" t="n">
-        <v>442.3298337384635</v>
+        <v>93.87897564322566</v>
       </c>
       <c r="N16" t="n">
-        <v>149.5445813581159</v>
+        <v>371.552700037071</v>
       </c>
       <c r="O16" t="n">
-        <v>397.5670915932262</v>
+        <v>79.30975884702372</v>
       </c>
       <c r="P16" t="n">
         <v>323.5979323663882</v>
       </c>
       <c r="Q16" t="n">
-        <v>18.8455216059803</v>
+        <v>146.3949763593511</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>107.9084797608303</v>
+        <v>107.9084797608298</v>
       </c>
       <c r="K17" t="n">
         <v>182.4835053289586</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>18.79474490498374</v>
       </c>
       <c r="J18" t="n">
         <v>302.7010421641655</v>
@@ -35971,7 +35971,7 @@
         <v>191.9518803437599</v>
       </c>
       <c r="M18" t="n">
-        <v>231.9175093736268</v>
+        <v>315.0169844785914</v>
       </c>
       <c r="N18" t="n">
         <v>243.9501214020111</v>
@@ -35983,7 +35983,7 @@
         <v>163.9065119335332</v>
       </c>
       <c r="Q18" t="n">
-        <v>191.0398931224363</v>
+        <v>89.14567311248757</v>
       </c>
       <c r="R18" t="n">
         <v>100.7929153791732</v>
@@ -36047,22 +36047,22 @@
         <v>267.3956797008439</v>
       </c>
       <c r="L19" t="n">
-        <v>87.77463119421319</v>
+        <v>404.9252486033274</v>
       </c>
       <c r="M19" t="n">
-        <v>442.3298337384635</v>
+        <v>93.87897564322566</v>
       </c>
       <c r="N19" t="n">
-        <v>413.0773929471244</v>
+        <v>94.86118584832728</v>
       </c>
       <c r="O19" t="n">
-        <v>397.5670915932262</v>
+        <v>356.0012730357678</v>
       </c>
       <c r="P19" t="n">
-        <v>60.06512077738009</v>
+        <v>323.5979323663882</v>
       </c>
       <c r="Q19" t="n">
-        <v>18.8455216059803</v>
+        <v>146.3949763593511</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>140.5560401330744</v>
       </c>
       <c r="R20" t="n">
-        <v>46.82024895384008</v>
+        <v>46.82024895384043</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,22 +36196,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>18.79474490498374</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>56.57134117968751</v>
+        <v>135.8368534361951</v>
       </c>
       <c r="K21" t="n">
         <v>128.6618609232977</v>
       </c>
       <c r="L21" t="n">
-        <v>446.7623813221048</v>
+        <v>191.9518803437599</v>
       </c>
       <c r="M21" t="n">
         <v>231.9175093736268</v>
       </c>
       <c r="N21" t="n">
-        <v>318.3687965131089</v>
+        <v>243.9501214020111</v>
       </c>
       <c r="O21" t="n">
         <v>214.076785340472</v>
@@ -36220,10 +36220,10 @@
         <v>163.9065119335332</v>
       </c>
       <c r="Q21" t="n">
-        <v>89.14567311248757</v>
+        <v>446.7623813221048</v>
       </c>
       <c r="R21" t="n">
-        <v>100.7929153791732</v>
+        <v>11.934615907475</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36281,13 +36281,13 @@
         <v>81.94324842524412</v>
       </c>
       <c r="K22" t="n">
-        <v>59.03184779608208</v>
+        <v>267.3956797008439</v>
       </c>
       <c r="L22" t="n">
-        <v>363.8845334236124</v>
+        <v>404.9252486033274</v>
       </c>
       <c r="M22" t="n">
-        <v>93.87897564322566</v>
+        <v>108.0072401477564</v>
       </c>
       <c r="N22" t="n">
         <v>430.2493691287167</v>
@@ -36296,7 +36296,7 @@
         <v>397.5670915932262</v>
       </c>
       <c r="P22" t="n">
-        <v>323.5979323663882</v>
+        <v>60.06512077738009</v>
       </c>
       <c r="Q22" t="n">
         <v>18.8455216059803</v>
@@ -36363,7 +36363,7 @@
         <v>182.4835053289586</v>
       </c>
       <c r="L23" t="n">
-        <v>241.4830999614339</v>
+        <v>351.5575140411024</v>
       </c>
       <c r="M23" t="n">
         <v>281.6521564735544</v>
@@ -36378,7 +36378,7 @@
         <v>213.4113988914702</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.6304542127426</v>
+        <v>140.5560401330744</v>
       </c>
       <c r="R23" t="n">
         <v>175.0987005459018</v>
@@ -36457,10 +36457,10 @@
         <v>163.9065119335332</v>
       </c>
       <c r="Q24" t="n">
-        <v>429.392758794166</v>
+        <v>499.2165387728651</v>
       </c>
       <c r="R24" t="n">
-        <v>100.7929153791732</v>
+        <v>30.96913540047413</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.94324842524412</v>
+        <v>16.28530536328818</v>
       </c>
       <c r="K25" t="n">
-        <v>226.1504729390613</v>
+        <v>59.03184779608208</v>
       </c>
       <c r="L25" t="n">
         <v>404.9252486033274</v>
@@ -36530,10 +36530,10 @@
         <v>430.2493691287167</v>
       </c>
       <c r="O25" t="n">
-        <v>79.30975884702372</v>
+        <v>397.5670915932262</v>
       </c>
       <c r="P25" t="n">
-        <v>323.5979323663882</v>
+        <v>238.1171678251208</v>
       </c>
       <c r="Q25" t="n">
         <v>18.8455216059803</v>
@@ -36676,7 +36676,7 @@
         <v>302.7010421641655</v>
       </c>
       <c r="K27" t="n">
-        <v>147.6963804162967</v>
+        <v>128.6618609232977</v>
       </c>
       <c r="L27" t="n">
         <v>191.9518803437599</v>
@@ -36697,7 +36697,7 @@
         <v>499.2165387728651</v>
       </c>
       <c r="R27" t="n">
-        <v>11.934615907475</v>
+        <v>30.96913540047413</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,13 +36752,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>39.59132632637338</v>
+        <v>16.28530536328818</v>
       </c>
       <c r="K28" t="n">
-        <v>267.3956797008439</v>
+        <v>59.03184779608208</v>
       </c>
       <c r="L28" t="n">
-        <v>87.77463119421319</v>
+        <v>404.9252486033274</v>
       </c>
       <c r="M28" t="n">
         <v>442.3298337384635</v>
@@ -36770,7 +36770,7 @@
         <v>397.5670915932262</v>
       </c>
       <c r="P28" t="n">
-        <v>323.5979323663882</v>
+        <v>238.1171678251208</v>
       </c>
       <c r="Q28" t="n">
         <v>18.8455216059803</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>107.9084797608297</v>
+        <v>217.9828938404981</v>
       </c>
       <c r="K29" t="n">
         <v>182.4835053289586</v>
@@ -36852,10 +36852,10 @@
         <v>213.4113988914702</v>
       </c>
       <c r="Q29" t="n">
-        <v>378.9089058048045</v>
+        <v>140.5560401330744</v>
       </c>
       <c r="R29" t="n">
-        <v>46.82024895384008</v>
+        <v>175.0987005459018</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,7 +36913,7 @@
         <v>302.7010421641655</v>
       </c>
       <c r="K30" t="n">
-        <v>468.908946604976</v>
+        <v>128.6618609232977</v>
       </c>
       <c r="L30" t="n">
         <v>191.9518803437599</v>
@@ -36931,10 +36931,10 @@
         <v>163.9065119335332</v>
       </c>
       <c r="Q30" t="n">
-        <v>89.14567311248757</v>
+        <v>499.2165387728651</v>
       </c>
       <c r="R30" t="n">
-        <v>100.7929153791732</v>
+        <v>30.96913540047413</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.94324842524412</v>
+        <v>16.28530536328818</v>
       </c>
       <c r="K31" t="n">
-        <v>267.3956797008439</v>
+        <v>59.03184779608208</v>
       </c>
       <c r="L31" t="n">
         <v>404.9252486033274</v>
@@ -37001,13 +37001,13 @@
         <v>442.3298337384635</v>
       </c>
       <c r="N31" t="n">
-        <v>94.86118584832728</v>
+        <v>430.2493691287167</v>
       </c>
       <c r="O31" t="n">
         <v>397.5670915932262</v>
       </c>
       <c r="P31" t="n">
-        <v>171.934121385422</v>
+        <v>110.5677130717501</v>
       </c>
       <c r="Q31" t="n">
         <v>146.3949763593511</v>
@@ -37168,10 +37168,10 @@
         <v>163.9065119335332</v>
       </c>
       <c r="Q33" t="n">
-        <v>429.3927587941657</v>
+        <v>499.2165387728651</v>
       </c>
       <c r="R33" t="n">
-        <v>100.7929153791732</v>
+        <v>30.96913540047413</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>16.28530536328818</v>
+        <v>81.94324842524412</v>
       </c>
       <c r="K34" t="n">
         <v>267.3956797008439</v>
@@ -37235,19 +37235,19 @@
         <v>404.9252486033274</v>
       </c>
       <c r="M34" t="n">
-        <v>442.3298337384635</v>
+        <v>93.87897564322566</v>
       </c>
       <c r="N34" t="n">
-        <v>430.2493691287167</v>
+        <v>291.6482329625985</v>
       </c>
       <c r="O34" t="n">
-        <v>103.7224951471974</v>
+        <v>397.5670915932262</v>
       </c>
       <c r="P34" t="n">
         <v>323.5979323663882</v>
       </c>
       <c r="Q34" t="n">
-        <v>18.8455216059803</v>
+        <v>146.3949763593511</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>140.5560401330744</v>
       </c>
       <c r="R35" t="n">
-        <v>46.82024895383951</v>
+        <v>46.82024895384008</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>18.79474490498374</v>
       </c>
       <c r="J36" t="n">
         <v>302.7010421641655</v>
       </c>
       <c r="K36" t="n">
-        <v>230.556080933245</v>
+        <v>128.6618609232977</v>
       </c>
       <c r="L36" t="n">
         <v>191.9518803437599</v>
@@ -37405,7 +37405,7 @@
         <v>163.9065119335332</v>
       </c>
       <c r="Q36" t="n">
-        <v>89.14567311248757</v>
+        <v>172.2451482174526</v>
       </c>
       <c r="R36" t="n">
         <v>100.7929153791732</v>
@@ -37469,7 +37469,7 @@
         <v>59.03184779608208</v>
       </c>
       <c r="L37" t="n">
-        <v>217.0749752259667</v>
+        <v>344.6244299793386</v>
       </c>
       <c r="M37" t="n">
         <v>442.3298337384635</v>
@@ -37484,7 +37484,7 @@
         <v>60.06512077738009</v>
       </c>
       <c r="Q37" t="n">
-        <v>146.3949763593511</v>
+        <v>18.8455216059803</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>107.9084797608297</v>
+        <v>107.9084797608303</v>
       </c>
       <c r="K38" t="n">
         <v>182.4835053289586</v>
@@ -37563,7 +37563,7 @@
         <v>213.4113988914702</v>
       </c>
       <c r="Q38" t="n">
-        <v>140.5560401330751</v>
+        <v>140.5560401330744</v>
       </c>
       <c r="R38" t="n">
         <v>46.82024895384008</v>
@@ -37621,13 +37621,13 @@
         <v>18.79474490498374</v>
       </c>
       <c r="J39" t="n">
-        <v>56.57134117968751</v>
+        <v>302.7010421641655</v>
       </c>
       <c r="K39" t="n">
         <v>128.6618609232977</v>
       </c>
       <c r="L39" t="n">
-        <v>252.4226476952839</v>
+        <v>191.9518803437599</v>
       </c>
       <c r="M39" t="n">
         <v>231.9175093736268</v>
@@ -37642,10 +37642,10 @@
         <v>163.9065119335332</v>
       </c>
       <c r="Q39" t="n">
-        <v>446.7623813221048</v>
+        <v>172.2451482174526</v>
       </c>
       <c r="R39" t="n">
-        <v>11.934615907475</v>
+        <v>100.7929153791732</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,13 +37700,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.94324842524412</v>
+        <v>16.28530536328818</v>
       </c>
       <c r="K40" t="n">
         <v>59.03184779608208</v>
       </c>
       <c r="L40" t="n">
-        <v>404.9252486033274</v>
+        <v>344.6244299793386</v>
       </c>
       <c r="M40" t="n">
         <v>442.3298337384635</v>
@@ -37715,10 +37715,10 @@
         <v>430.2493691287167</v>
       </c>
       <c r="O40" t="n">
-        <v>79.30975884702372</v>
+        <v>397.5670915932262</v>
       </c>
       <c r="P40" t="n">
-        <v>252.3636918376377</v>
+        <v>60.06512077738009</v>
       </c>
       <c r="Q40" t="n">
         <v>18.8455216059803</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>18.79474490498374</v>
       </c>
       <c r="J42" t="n">
         <v>56.57134117968751</v>
       </c>
       <c r="K42" t="n">
-        <v>446.7623813221048</v>
+        <v>128.6618609232977</v>
       </c>
       <c r="L42" t="n">
         <v>191.9518803437599</v>
@@ -37876,13 +37876,13 @@
         <v>214.076785340472</v>
       </c>
       <c r="P42" t="n">
-        <v>282.688212000851</v>
+        <v>163.9065119335332</v>
       </c>
       <c r="Q42" t="n">
-        <v>89.14567311248757</v>
+        <v>418.3748492019304</v>
       </c>
       <c r="R42" t="n">
-        <v>11.934615907475</v>
+        <v>100.7929153791732</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,16 +37937,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.94324842524412</v>
+        <v>16.28530536328818</v>
       </c>
       <c r="K43" t="n">
-        <v>153.9744894520041</v>
+        <v>59.03184779608208</v>
       </c>
       <c r="L43" t="n">
-        <v>404.9252486033274</v>
+        <v>87.77463119421319</v>
       </c>
       <c r="M43" t="n">
-        <v>93.87897564322566</v>
+        <v>435.6468209345808</v>
       </c>
       <c r="N43" t="n">
         <v>430.2493691287167</v>
@@ -37955,10 +37955,10 @@
         <v>397.5670915932262</v>
       </c>
       <c r="P43" t="n">
-        <v>60.06512077738009</v>
+        <v>323.5979323663882</v>
       </c>
       <c r="Q43" t="n">
-        <v>146.3949763593511</v>
+        <v>18.8455216059803</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38092,19 +38092,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>18.79474490498374</v>
       </c>
       <c r="J45" t="n">
         <v>302.7010421641655</v>
       </c>
       <c r="K45" t="n">
-        <v>230.5560809332454</v>
+        <v>128.6618609232977</v>
       </c>
       <c r="L45" t="n">
         <v>191.9518803437599</v>
       </c>
       <c r="M45" t="n">
-        <v>231.9175093736268</v>
+        <v>315.0169844785909</v>
       </c>
       <c r="N45" t="n">
         <v>243.9501214020111</v>
@@ -38174,16 +38174,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>64.77127224365087</v>
+        <v>16.28530536328818</v>
       </c>
       <c r="K46" t="n">
-        <v>267.3956797008439</v>
+        <v>59.03184779608208</v>
       </c>
       <c r="L46" t="n">
-        <v>87.77463119421319</v>
+        <v>404.9252486033274</v>
       </c>
       <c r="M46" t="n">
-        <v>442.3298337384635</v>
+        <v>382.0290151144737</v>
       </c>
       <c r="N46" t="n">
         <v>430.2493691287167</v>
